--- a/data/Sources/NGC1404.xlsx
+++ b/data/Sources/NGC1404.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="284">
   <si>
     <t>Results from query to  NASA/IPAC Extragalactic Database (NED),</t>
   </si>
@@ -863,13 +863,16 @@
   </si>
   <si>
     <t>03 38 52.50 -35 35 40.0 (J2000)</t>
+  </si>
+  <si>
+    <t>http://ned.ipac.caltech.edu/cgi-bin/datasearch?objname=ngc1404&amp;meas_type=bot&amp;ebars_spec=ebars&amp;label_spec=no&amp;x_spec=freq&amp;y_spec=Fnu_jy&amp;xr=-1&amp;of=table&amp;search_type=Photometry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1004,6 +1007,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1303,7 +1313,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1346,12 +1356,17 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1385,6 +1400,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1398,6 +1414,55 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>510700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="http://ned.ipac.caltech.edu/results/photo_3572.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5038725" y="9525"/>
+          <a:ext cx="4615975" cy="2809875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1687,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="F128" sqref="F128"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1702,6 +1767,9 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="Q3" s="2" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
@@ -7427,6 +7495,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/Sources/NGC1404.xlsx
+++ b/data/Sources/NGC1404.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="286">
   <si>
     <t>Results from query to  NASA/IPAC Extragalactic Database (NED),</t>
   </si>
@@ -866,6 +866,12 @@
   </si>
   <si>
     <t>http://ned.ipac.caltech.edu/cgi-bin/datasearch?objname=ngc1404&amp;meas_type=bot&amp;ebars_spec=ebars&amp;label_spec=no&amp;x_spec=freq&amp;y_spec=Fnu_jy&amp;xr=-1&amp;of=table&amp;search_type=Photometry</t>
+  </si>
+  <si>
+    <t>Freq (Hz)</t>
+  </si>
+  <si>
+    <t>SED (Jy)</t>
   </si>
 </sst>
 </file>
@@ -1420,13 +1426,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>510700</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -1750,5753 +1756,6700 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Q127"/>
+  <dimension ref="A1:U127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="1">
+        <v>1.03E+18</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4.0499999999999999E-7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
+    <row r="3" spans="1:21">
+      <c r="A3" s="1">
+        <v>1E+18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.0599999999999999E-8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" t="s">
+    <row r="4" spans="1:21">
+      <c r="A4" s="1">
+        <v>1E+18</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.04E-7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" t="s">
+    <row r="5" spans="1:21">
+      <c r="A5" s="1">
+        <v>52500000</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6.3300000000000002E-7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" t="s">
+    <row r="6" spans="1:21">
+      <c r="A6" s="1">
+        <v>2.78E+17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3.8799999999999998E-7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" t="s">
+    <row r="7" spans="1:21">
+      <c r="A7" s="1">
+        <v>2.54E+17</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.6199999999999999E-6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
-      <c r="A10" t="s">
+    <row r="8" spans="1:21">
+      <c r="A8" s="1">
+        <v>1980000000000000</v>
+      </c>
+      <c r="B8" s="1">
+        <v>8.8699999999999998E-4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="1">
+        <v>1980000000000000</v>
+      </c>
+      <c r="B9" s="1">
+        <v>9.8799999999999995E-4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="1">
+        <v>1960000000000000</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9.7000000000000005E-4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14" t="s">
+    <row r="11" spans="1:21">
+      <c r="A11" s="1">
+        <v>1920000000000000</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9.9099999999999991E-4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="1">
+        <v>1820000000000000</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8.2799999999999996E-4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="1">
+        <v>1320000000000000</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2.7599999999999999E-3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="1">
+        <v>1320000000000000</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.5300000000000001E-3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
-      <c r="A16" t="s">
+    <row r="15" spans="1:21">
+      <c r="A15" s="1">
+        <v>1320000000000000</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2.82E-3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="1">
+        <v>1300000000000000</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2.6099999999999999E-3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" t="s">
+      <c r="F16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" t="s">
+      <c r="G16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" t="s">
+      <c r="H16" t="s">
         <v>11</v>
       </c>
-      <c r="E16" t="s">
+      <c r="I16" t="s">
         <v>12</v>
       </c>
-      <c r="F16" t="s">
+      <c r="J16" t="s">
         <v>13</v>
       </c>
-      <c r="G16" t="s">
+      <c r="K16" t="s">
         <v>14</v>
       </c>
-      <c r="H16" t="s">
+      <c r="L16" t="s">
         <v>15</v>
       </c>
-      <c r="I16" t="s">
+      <c r="M16" t="s">
         <v>16</v>
       </c>
-      <c r="J16" t="s">
+      <c r="N16" t="s">
         <v>17</v>
       </c>
-      <c r="K16" t="s">
+      <c r="O16" t="s">
         <v>18</v>
       </c>
-      <c r="L16" t="s">
+      <c r="P16" t="s">
         <v>19</v>
       </c>
-      <c r="M16" t="s">
+      <c r="Q16" t="s">
         <v>20</v>
       </c>
-      <c r="N16" t="s">
+      <c r="R16" t="s">
         <v>21</v>
       </c>
-      <c r="O16" t="s">
+      <c r="S16" t="s">
         <v>22</v>
       </c>
-      <c r="P16" t="s">
+      <c r="T16" t="s">
         <v>23</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="U16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
-      <c r="A17">
+    <row r="17" spans="1:21">
+      <c r="A17" s="1">
+        <v>1200000000000000</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.67E-3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
+      <c r="F17" t="s">
         <v>25</v>
       </c>
-      <c r="C17">
+      <c r="G17">
         <v>-11.38</v>
       </c>
-      <c r="E17" t="s">
+      <c r="I17" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="1">
+      <c r="J17" s="1">
         <v>1.03E+18</v>
       </c>
-      <c r="G17" s="1">
+      <c r="K17" s="1">
         <v>4.0499999999999999E-7</v>
       </c>
-      <c r="I17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="M17" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" t="s">
         <v>28</v>
       </c>
-      <c r="K17" t="s">
+      <c r="O17" t="s">
         <v>29</v>
       </c>
-      <c r="L17" t="s">
+      <c r="P17" t="s">
         <v>30</v>
       </c>
-      <c r="M17" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="Q17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R17" t="s">
         <v>32</v>
       </c>
-      <c r="O17" t="s">
+      <c r="S17" t="s">
         <v>33</v>
       </c>
-      <c r="P17" t="s">
+      <c r="T17" t="s">
         <v>34</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="U17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18">
+    <row r="18" spans="1:21">
+      <c r="A18" s="1">
+        <v>952000000000000</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
         <v>2</v>
       </c>
-      <c r="B18" t="s">
+      <c r="F18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="1">
+      <c r="G18" s="1">
         <v>2.057E-13</v>
       </c>
-      <c r="D18" s="1">
+      <c r="H18" s="1">
         <v>7.2999999999999995E-15</v>
       </c>
-      <c r="E18" t="s">
+      <c r="I18" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="1">
+      <c r="J18" s="1">
         <v>1E+18</v>
       </c>
-      <c r="G18" s="1">
+      <c r="K18" s="1">
         <v>2.0599999999999999E-8</v>
       </c>
-      <c r="H18" s="1">
+      <c r="L18" s="1">
         <v>7.2999999999999996E-10</v>
       </c>
-      <c r="I18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="M18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" t="s">
         <v>38</v>
       </c>
-      <c r="K18" t="s">
+      <c r="O18" t="s">
         <v>39</v>
       </c>
-      <c r="L18" t="s">
+      <c r="P18" t="s">
         <v>40</v>
       </c>
-      <c r="M18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="Q18" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" t="s">
         <v>41</v>
       </c>
-      <c r="O18" t="s">
+      <c r="S18" t="s">
         <v>33</v>
       </c>
-      <c r="P18" t="s">
+      <c r="T18" t="s">
         <v>42</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="U18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
-      <c r="A19">
+    <row r="19" spans="1:21">
+      <c r="A19" s="1">
+        <v>819000000000000</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
+      <c r="F19" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="1">
+      <c r="G19" s="1">
         <v>1.04E-12</v>
       </c>
-      <c r="E19" t="s">
+      <c r="I19" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="1">
+      <c r="J19" s="1">
         <v>1E+18</v>
       </c>
-      <c r="G19" s="1">
+      <c r="K19" s="1">
         <v>1.04E-7</v>
       </c>
-      <c r="I19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="M19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" t="s">
         <v>44</v>
       </c>
-      <c r="K19" t="s">
+      <c r="O19" t="s">
         <v>29</v>
       </c>
-      <c r="L19" t="s">
+      <c r="P19" t="s">
         <v>40</v>
       </c>
-      <c r="M19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="Q19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R19" t="s">
         <v>45</v>
       </c>
-      <c r="O19" t="s">
+      <c r="S19" t="s">
         <v>33</v>
       </c>
-      <c r="P19" t="s">
+      <c r="T19" t="s">
         <v>34</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="U19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
-      <c r="A20">
+    <row r="20" spans="1:21">
+      <c r="A20" s="1">
+        <v>819000000000000</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
         <v>4</v>
       </c>
-      <c r="B20" t="s">
+      <c r="F20" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="1">
+      <c r="G20" s="1">
         <v>3.3220000000000002E-12</v>
       </c>
-      <c r="E20" t="s">
+      <c r="I20" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="1">
+      <c r="J20" s="1">
         <v>52500000</v>
       </c>
-      <c r="G20" s="1">
+      <c r="K20" s="1">
         <v>6.3300000000000002E-7</v>
       </c>
-      <c r="I20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="M20" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" t="s">
         <v>48</v>
       </c>
-      <c r="K20" t="s">
+      <c r="O20" t="s">
         <v>29</v>
       </c>
-      <c r="L20" t="s">
+      <c r="P20" t="s">
         <v>49</v>
       </c>
-      <c r="M20" t="s">
+      <c r="Q20" t="s">
         <v>50</v>
       </c>
-      <c r="N20" t="s">
+      <c r="R20" t="s">
         <v>51</v>
       </c>
-      <c r="O20" t="s">
+      <c r="S20" t="s">
         <v>33</v>
       </c>
-      <c r="P20" t="s">
+      <c r="T20" t="s">
         <v>34</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="U20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
-      <c r="A21">
+    <row r="21" spans="1:21">
+      <c r="A21" s="1">
+        <v>681000000000000</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
         <v>5</v>
       </c>
-      <c r="B21" t="s">
+      <c r="F21" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="1">
+      <c r="G21" s="1">
         <v>1.08E-12</v>
       </c>
-      <c r="D21" s="1">
+      <c r="H21" s="1">
         <v>1.1E-13</v>
       </c>
-      <c r="E21" t="s">
+      <c r="I21" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="1">
+      <c r="J21" s="1">
         <v>2.78E+17</v>
       </c>
-      <c r="G21" s="1">
+      <c r="K21" s="1">
         <v>3.8799999999999998E-7</v>
       </c>
-      <c r="H21" s="1">
+      <c r="L21" s="1">
         <v>3.9599999999999997E-8</v>
       </c>
-      <c r="I21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="M21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" t="s">
         <v>55</v>
       </c>
-      <c r="K21" t="s">
+      <c r="O21" t="s">
         <v>39</v>
       </c>
-      <c r="L21" t="s">
+      <c r="P21" t="s">
         <v>56</v>
       </c>
-      <c r="M21" t="s">
-        <v>31</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="Q21" t="s">
+        <v>31</v>
+      </c>
+      <c r="S21" t="s">
         <v>57</v>
       </c>
-      <c r="P21" t="s">
+      <c r="T21" t="s">
         <v>34</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="U21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
-      <c r="A22">
+    <row r="22" spans="1:21">
+      <c r="A22" s="1">
+        <v>681000000000000</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
         <v>6</v>
       </c>
-      <c r="B22" t="s">
+      <c r="F22" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="1">
+      <c r="G22" s="1">
         <v>4.1100000000000001E-12</v>
       </c>
-      <c r="D22" s="1">
+      <c r="H22" s="1">
         <v>4.4999999999999998E-14</v>
       </c>
-      <c r="E22" t="s">
+      <c r="I22" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="1">
+      <c r="J22" s="1">
         <v>2.54E+17</v>
       </c>
-      <c r="G22" s="1">
+      <c r="K22" s="1">
         <v>1.6199999999999999E-6</v>
       </c>
-      <c r="H22" s="1">
+      <c r="L22" s="1">
         <v>1.77E-8</v>
       </c>
-      <c r="I22" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="M22" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" t="s">
         <v>60</v>
       </c>
-      <c r="K22" t="s">
+      <c r="O22" t="s">
         <v>39</v>
       </c>
-      <c r="L22" t="s">
+      <c r="P22" t="s">
         <v>61</v>
       </c>
-      <c r="M22" t="s">
-        <v>31</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="Q22" t="s">
+        <v>31</v>
+      </c>
+      <c r="R22" t="s">
         <v>62</v>
       </c>
-      <c r="O22" t="s">
+      <c r="S22" t="s">
         <v>33</v>
       </c>
-      <c r="P22" t="s">
+      <c r="T22" t="s">
         <v>34</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="U22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
-      <c r="A23">
+    <row r="23" spans="1:21">
+      <c r="A23" s="1">
+        <v>681000000000000</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
         <v>7</v>
       </c>
-      <c r="B23" t="s">
+      <c r="F23" t="s">
         <v>64</v>
       </c>
-      <c r="D23" t="s">
+      <c r="H23" t="s">
         <v>65</v>
       </c>
-      <c r="E23" t="s">
+      <c r="I23" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="1">
+      <c r="J23" s="1">
         <v>2900000000000000</v>
       </c>
-      <c r="H23" t="s">
+      <c r="L23" t="s">
         <v>67</v>
       </c>
-      <c r="I23" t="s">
+      <c r="M23" t="s">
         <v>68</v>
       </c>
-      <c r="J23" t="s">
+      <c r="N23" t="s">
         <v>69</v>
       </c>
-      <c r="K23" t="s">
+      <c r="O23" t="s">
         <v>70</v>
       </c>
-      <c r="L23" t="s">
+      <c r="P23" t="s">
         <v>71</v>
       </c>
-      <c r="M23" t="s">
+      <c r="Q23" t="s">
         <v>72</v>
       </c>
-      <c r="O23" t="s">
+      <c r="S23" t="s">
         <v>33</v>
       </c>
-      <c r="P23" t="s">
+      <c r="T23" t="s">
         <v>34</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="U23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
-      <c r="A24">
+    <row r="24" spans="1:21">
+      <c r="A24" s="1">
+        <v>681000000000000</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.161</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
         <v>8</v>
       </c>
-      <c r="B24" t="s">
+      <c r="F24" t="s">
         <v>74</v>
       </c>
-      <c r="C24">
+      <c r="G24">
         <v>16.53</v>
       </c>
-      <c r="D24">
+      <c r="H24">
         <v>0.01</v>
       </c>
-      <c r="E24" t="s">
+      <c r="I24" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="1">
+      <c r="J24" s="1">
         <v>1980000000000000</v>
       </c>
-      <c r="G24" s="1">
+      <c r="K24" s="1">
         <v>8.8699999999999998E-4</v>
       </c>
-      <c r="H24" s="1">
+      <c r="L24" s="1">
         <v>8.1699999999999997E-6</v>
       </c>
-      <c r="I24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="M24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" t="s">
         <v>76</v>
       </c>
-      <c r="K24" t="s">
+      <c r="O24" t="s">
         <v>39</v>
       </c>
-      <c r="L24" t="s">
+      <c r="P24" t="s">
         <v>77</v>
       </c>
-      <c r="M24" t="s">
-        <v>31</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="Q24" t="s">
+        <v>31</v>
+      </c>
+      <c r="R24" t="s">
         <v>78</v>
       </c>
-      <c r="O24" t="s">
+      <c r="S24" t="s">
         <v>79</v>
       </c>
-      <c r="P24" t="s">
+      <c r="T24" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="U24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
-      <c r="A25">
+    <row r="25" spans="1:21">
+      <c r="A25" s="1">
+        <v>681000000000000</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
         <v>9</v>
       </c>
-      <c r="B25" t="s">
+      <c r="F25" t="s">
         <v>74</v>
       </c>
-      <c r="C25">
+      <c r="G25">
         <v>16.413</v>
       </c>
-      <c r="D25">
+      <c r="H25">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E25" t="s">
+      <c r="I25" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="1">
+      <c r="J25" s="1">
         <v>1980000000000000</v>
       </c>
-      <c r="G25" s="1">
+      <c r="K25" s="1">
         <v>9.8799999999999995E-4</v>
       </c>
-      <c r="H25" s="1">
+      <c r="L25" s="1">
         <v>7.2799999999999998E-6</v>
       </c>
-      <c r="I25" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="M25" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" t="s">
         <v>81</v>
       </c>
-      <c r="K25" t="s">
+      <c r="O25" t="s">
         <v>82</v>
       </c>
-      <c r="L25" t="s">
+      <c r="P25" t="s">
         <v>77</v>
       </c>
-      <c r="M25" t="s">
-        <v>31</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="Q25" t="s">
+        <v>31</v>
+      </c>
+      <c r="R25" t="s">
         <v>78</v>
       </c>
-      <c r="O25" t="s">
+      <c r="S25" t="s">
         <v>83</v>
       </c>
-      <c r="P25" t="s">
+      <c r="T25" t="s">
         <v>84</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="U25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
-      <c r="A26">
+    <row r="26" spans="1:21">
+      <c r="A26" s="1">
+        <v>681000000000000</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
         <v>10</v>
       </c>
-      <c r="B26" t="s">
+      <c r="F26" t="s">
         <v>86</v>
       </c>
-      <c r="C26">
+      <c r="G26">
         <v>0.97</v>
       </c>
-      <c r="D26">
+      <c r="H26">
         <v>0.13</v>
       </c>
-      <c r="E26" t="s">
+      <c r="I26" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="1">
+      <c r="J26" s="1">
         <v>1960000000000000</v>
       </c>
-      <c r="G26" s="1">
+      <c r="K26" s="1">
         <v>9.7000000000000005E-4</v>
       </c>
-      <c r="H26" s="1">
+      <c r="L26" s="1">
         <v>1.2999999999999999E-4</v>
       </c>
-      <c r="I26" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="M26" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" t="s">
         <v>88</v>
       </c>
-      <c r="K26" t="s">
+      <c r="O26" t="s">
         <v>39</v>
       </c>
-      <c r="L26" t="s">
+      <c r="P26" t="s">
         <v>89</v>
       </c>
-      <c r="M26" t="s">
-        <v>31</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="Q26" t="s">
+        <v>31</v>
+      </c>
+      <c r="R26" t="s">
         <v>90</v>
       </c>
-      <c r="O26" t="s">
+      <c r="S26" t="s">
         <v>33</v>
       </c>
-      <c r="P26" t="s">
+      <c r="T26" t="s">
         <v>34</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="U26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
-      <c r="A27">
+    <row r="27" spans="1:21">
+      <c r="A27" s="1">
+        <v>666000000000000</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
         <v>11</v>
       </c>
-      <c r="B27" t="s">
+      <c r="F27" t="s">
         <v>74</v>
       </c>
-      <c r="C27">
+      <c r="G27">
         <v>16.41</v>
       </c>
-      <c r="D27">
+      <c r="H27">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E27" t="s">
+      <c r="I27" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="1">
+      <c r="J27" s="1">
         <v>1920000000000000</v>
       </c>
-      <c r="G27" s="1">
+      <c r="K27" s="1">
         <v>9.9099999999999991E-4</v>
       </c>
-      <c r="H27" s="1">
+      <c r="L27" s="1">
         <v>8.2099999999999993E-6</v>
       </c>
-      <c r="I27" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="M27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" t="s">
         <v>92</v>
       </c>
-      <c r="K27" t="s">
+      <c r="O27" t="s">
         <v>39</v>
       </c>
-      <c r="L27" t="s">
+      <c r="P27" t="s">
         <v>93</v>
       </c>
-      <c r="M27" t="s">
-        <v>31</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="Q27" t="s">
+        <v>31</v>
+      </c>
+      <c r="S27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" t="s">
+      <c r="T27" t="s">
         <v>94</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="U27" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
-      <c r="A28">
+    <row r="28" spans="1:21">
+      <c r="A28" s="1">
+        <v>545000000000000</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
         <v>12</v>
       </c>
-      <c r="B28" t="s">
+      <c r="F28" t="s">
         <v>95</v>
       </c>
-      <c r="C28">
+      <c r="G28">
         <v>14</v>
       </c>
-      <c r="D28">
+      <c r="H28">
         <v>0.17</v>
       </c>
-      <c r="E28" t="s">
+      <c r="I28" t="s">
         <v>80</v>
       </c>
-      <c r="F28" s="1">
+      <c r="J28" s="1">
         <v>1820000000000000</v>
       </c>
-      <c r="G28" s="1">
+      <c r="K28" s="1">
         <v>8.2799999999999996E-4</v>
       </c>
-      <c r="H28" s="1">
+      <c r="L28" s="1">
         <v>1.3999999999999999E-4</v>
       </c>
-      <c r="I28" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="M28" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" t="s">
         <v>96</v>
       </c>
-      <c r="K28" t="s">
+      <c r="O28" t="s">
         <v>97</v>
       </c>
-      <c r="L28" t="s">
+      <c r="P28" t="s">
         <v>98</v>
       </c>
-      <c r="M28" t="s">
+      <c r="Q28" t="s">
         <v>99</v>
       </c>
-      <c r="N28" t="s">
+      <c r="R28" t="s">
         <v>100</v>
       </c>
-      <c r="O28" t="s">
+      <c r="S28" t="s">
         <v>101</v>
       </c>
-      <c r="P28" t="s">
+      <c r="T28" t="s">
         <v>34</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="U28" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
-      <c r="A29">
+    <row r="29" spans="1:21">
+      <c r="A29" s="1">
+        <v>542000000000000</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
         <v>13</v>
       </c>
-      <c r="B29" t="s">
+      <c r="F29" t="s">
         <v>103</v>
       </c>
-      <c r="C29">
+      <c r="G29">
         <v>2.76</v>
       </c>
-      <c r="D29">
+      <c r="H29">
         <v>0.38</v>
       </c>
-      <c r="E29" t="s">
+      <c r="I29" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="1">
+      <c r="J29" s="1">
         <v>1320000000000000</v>
       </c>
-      <c r="G29" s="1">
+      <c r="K29" s="1">
         <v>2.7599999999999999E-3</v>
       </c>
-      <c r="H29" s="1">
+      <c r="L29" s="1">
         <v>3.8000000000000002E-4</v>
       </c>
-      <c r="I29" t="s">
-        <v>27</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="M29" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" t="s">
         <v>88</v>
       </c>
-      <c r="K29" t="s">
+      <c r="O29" t="s">
         <v>39</v>
       </c>
-      <c r="L29" t="s">
+      <c r="P29" t="s">
         <v>104</v>
       </c>
-      <c r="M29" t="s">
-        <v>31</v>
-      </c>
-      <c r="N29" t="s">
+      <c r="Q29" t="s">
+        <v>31</v>
+      </c>
+      <c r="R29" t="s">
         <v>90</v>
       </c>
-      <c r="O29" t="s">
+      <c r="S29" t="s">
         <v>33</v>
       </c>
-      <c r="P29" t="s">
+      <c r="T29" t="s">
         <v>34</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="U29" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
-      <c r="A30">
+    <row r="30" spans="1:21">
+      <c r="A30" s="1">
+        <v>542000000000000</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
         <v>14</v>
       </c>
-      <c r="B30" t="s">
+      <c r="F30" t="s">
         <v>105</v>
       </c>
-      <c r="C30">
+      <c r="G30">
         <v>15.39</v>
       </c>
-      <c r="D30">
+      <c r="H30">
         <v>0.01</v>
       </c>
-      <c r="E30" t="s">
+      <c r="I30" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="1">
+      <c r="J30" s="1">
         <v>1320000000000000</v>
       </c>
-      <c r="G30" s="1">
+      <c r="K30" s="1">
         <v>2.5300000000000001E-3</v>
       </c>
-      <c r="H30" s="1">
+      <c r="L30" s="1">
         <v>2.34E-5</v>
       </c>
-      <c r="I30" t="s">
-        <v>27</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="M30" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" t="s">
         <v>76</v>
       </c>
-      <c r="K30" t="s">
+      <c r="O30" t="s">
         <v>39</v>
       </c>
-      <c r="L30" t="s">
+      <c r="P30" t="s">
         <v>106</v>
       </c>
-      <c r="M30" t="s">
-        <v>31</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="Q30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R30" t="s">
         <v>78</v>
       </c>
-      <c r="O30" t="s">
+      <c r="S30" t="s">
         <v>79</v>
       </c>
-      <c r="P30" t="s">
+      <c r="T30" t="s">
         <v>34</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="U30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
-      <c r="A31">
+    <row r="31" spans="1:21">
+      <c r="A31" s="1">
+        <v>542000000000000</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
         <v>15</v>
       </c>
-      <c r="B31" t="s">
+      <c r="F31" t="s">
         <v>105</v>
       </c>
-      <c r="C31">
+      <c r="G31">
         <v>15.275</v>
       </c>
-      <c r="D31">
+      <c r="H31">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E31" t="s">
+      <c r="I31" t="s">
         <v>80</v>
       </c>
-      <c r="F31" s="1">
+      <c r="J31" s="1">
         <v>1320000000000000</v>
       </c>
-      <c r="G31" s="1">
+      <c r="K31" s="1">
         <v>2.82E-3</v>
       </c>
-      <c r="H31" s="1">
+      <c r="L31" s="1">
         <v>3.3800000000000002E-5</v>
       </c>
-      <c r="I31" t="s">
-        <v>27</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="M31" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" t="s">
         <v>81</v>
       </c>
-      <c r="K31" t="s">
+      <c r="O31" t="s">
         <v>82</v>
       </c>
-      <c r="L31" t="s">
+      <c r="P31" t="s">
         <v>106</v>
       </c>
-      <c r="M31" t="s">
-        <v>31</v>
-      </c>
-      <c r="N31" t="s">
+      <c r="Q31" t="s">
+        <v>31</v>
+      </c>
+      <c r="R31" t="s">
         <v>78</v>
       </c>
-      <c r="O31" t="s">
+      <c r="S31" t="s">
         <v>83</v>
       </c>
-      <c r="P31" t="s">
+      <c r="T31" t="s">
         <v>84</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="U31" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
-      <c r="A32">
+    <row r="32" spans="1:21">
+      <c r="A32" s="1">
+        <v>542000000000000</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32">
         <v>16</v>
       </c>
-      <c r="B32" t="s">
+      <c r="F32" t="s">
         <v>105</v>
       </c>
-      <c r="C32">
+      <c r="G32">
         <v>15.36</v>
       </c>
-      <c r="D32">
+      <c r="H32">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E32" t="s">
+      <c r="I32" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="1">
+      <c r="J32" s="1">
         <v>1300000000000000</v>
       </c>
-      <c r="G32" s="1">
+      <c r="K32" s="1">
         <v>2.6099999999999999E-3</v>
       </c>
-      <c r="H32" s="1">
+      <c r="L32" s="1">
         <v>7.1999999999999997E-6</v>
       </c>
-      <c r="I32" t="s">
-        <v>27</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="M32" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" t="s">
         <v>92</v>
       </c>
-      <c r="K32" t="s">
+      <c r="O32" t="s">
         <v>39</v>
       </c>
-      <c r="L32" t="s">
+      <c r="P32" t="s">
         <v>107</v>
       </c>
-      <c r="M32" t="s">
-        <v>31</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="Q32" t="s">
+        <v>31</v>
+      </c>
+      <c r="S32" t="s">
         <v>83</v>
       </c>
-      <c r="P32" t="s">
+      <c r="T32" t="s">
         <v>94</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="U32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
-      <c r="A33">
+    <row r="33" spans="1:21">
+      <c r="A33" s="1">
+        <v>542000000000000</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.252</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33">
         <v>17</v>
       </c>
-      <c r="B33" t="s">
+      <c r="F33" t="s">
         <v>108</v>
       </c>
-      <c r="C33">
+      <c r="G33">
         <v>14.14</v>
       </c>
-      <c r="D33">
+      <c r="H33">
         <v>0.2</v>
       </c>
-      <c r="E33" t="s">
+      <c r="I33" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="1">
+      <c r="J33" s="1">
         <v>1200000000000000</v>
       </c>
-      <c r="G33" s="1">
+      <c r="K33" s="1">
         <v>1.67E-3</v>
       </c>
-      <c r="H33" s="1">
+      <c r="L33" s="1">
         <v>3.3799999999999998E-4</v>
       </c>
-      <c r="I33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="M33" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33" t="s">
         <v>96</v>
       </c>
-      <c r="K33" t="s">
+      <c r="O33" t="s">
         <v>97</v>
       </c>
-      <c r="L33" t="s">
+      <c r="P33" t="s">
         <v>109</v>
       </c>
-      <c r="M33" t="s">
+      <c r="Q33" t="s">
         <v>99</v>
       </c>
-      <c r="N33" t="s">
+      <c r="R33" t="s">
         <v>100</v>
       </c>
-      <c r="O33" t="s">
+      <c r="S33" t="s">
         <v>101</v>
       </c>
-      <c r="P33" t="s">
+      <c r="T33" t="s">
         <v>34</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="U33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
-      <c r="A34">
+    <row r="34" spans="1:21">
+      <c r="A34" s="1">
+        <v>542000000000000</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34">
         <v>18</v>
       </c>
-      <c r="B34" t="s">
+      <c r="F34" t="s">
         <v>110</v>
       </c>
-      <c r="C34">
+      <c r="G34">
         <v>12.25</v>
       </c>
-      <c r="D34">
+      <c r="H34">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E34" t="s">
+      <c r="I34" t="s">
         <v>80</v>
       </c>
-      <c r="F34" s="1">
+      <c r="J34" s="1">
         <v>952000000000000</v>
       </c>
-      <c r="G34" s="1">
+      <c r="K34" s="1">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="H34" s="1">
+      <c r="L34" s="1">
         <v>4.45E-3</v>
       </c>
-      <c r="I34" t="s">
-        <v>27</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="M34" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34" t="s">
         <v>96</v>
       </c>
-      <c r="K34" t="s">
+      <c r="O34" t="s">
         <v>97</v>
       </c>
-      <c r="L34" t="s">
+      <c r="P34" t="s">
         <v>111</v>
       </c>
-      <c r="M34" t="s">
+      <c r="Q34" t="s">
         <v>99</v>
       </c>
-      <c r="N34" t="s">
+      <c r="R34" t="s">
         <v>100</v>
       </c>
-      <c r="O34" t="s">
+      <c r="S34" t="s">
         <v>101</v>
       </c>
-      <c r="P34" t="s">
+      <c r="T34" t="s">
         <v>34</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="U34" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
-      <c r="A35">
+    <row r="35" spans="1:21">
+      <c r="A35" s="1">
+        <v>542000000000000</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35">
         <v>19</v>
       </c>
-      <c r="B35" t="s">
+      <c r="F35" t="s">
         <v>112</v>
       </c>
-      <c r="C35">
+      <c r="G35">
         <v>11.55</v>
       </c>
-      <c r="E35" t="s">
+      <c r="I35" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="1">
+      <c r="J35" s="1">
         <v>819000000000000</v>
       </c>
-      <c r="G35" s="1">
+      <c r="K35" s="1">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="I35" t="s">
-        <v>27</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="M35" t="s">
+        <v>27</v>
+      </c>
+      <c r="N35" t="s">
         <v>113</v>
       </c>
-      <c r="K35" t="s">
+      <c r="O35" t="s">
         <v>29</v>
       </c>
-      <c r="L35" t="s">
+      <c r="P35" t="s">
         <v>114</v>
       </c>
-      <c r="M35" t="s">
-        <v>31</v>
-      </c>
-      <c r="N35" t="s">
+      <c r="Q35" t="s">
+        <v>31</v>
+      </c>
+      <c r="R35" t="s">
         <v>115</v>
       </c>
-      <c r="O35" t="s">
+      <c r="S35" t="s">
         <v>116</v>
       </c>
-      <c r="P35" t="s">
+      <c r="T35" t="s">
         <v>34</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="U35" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
-      <c r="A36">
+    <row r="36" spans="1:21">
+      <c r="A36" s="1">
+        <v>542000000000000</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36">
         <v>20</v>
       </c>
-      <c r="B36" t="s">
+      <c r="F36" t="s">
         <v>118</v>
       </c>
-      <c r="C36">
+      <c r="G36">
         <v>11.53</v>
       </c>
-      <c r="D36">
+      <c r="H36">
         <v>0.13</v>
       </c>
-      <c r="E36" t="s">
+      <c r="I36" t="s">
         <v>80</v>
       </c>
-      <c r="F36" s="1">
+      <c r="J36" s="1">
         <v>819000000000000</v>
       </c>
-      <c r="G36" s="1">
+      <c r="K36" s="1">
         <v>4.4200000000000003E-2</v>
       </c>
-      <c r="H36" s="1">
+      <c r="L36" s="1">
         <v>5.64E-3</v>
       </c>
-      <c r="I36" t="s">
-        <v>27</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="M36" t="s">
+        <v>27</v>
+      </c>
+      <c r="N36" t="s">
         <v>113</v>
       </c>
-      <c r="K36" t="s">
+      <c r="O36" t="s">
         <v>119</v>
       </c>
-      <c r="L36" t="s">
+      <c r="P36" t="s">
         <v>114</v>
       </c>
-      <c r="M36" t="s">
-        <v>31</v>
-      </c>
-      <c r="N36" t="s">
+      <c r="Q36" t="s">
+        <v>31</v>
+      </c>
+      <c r="R36" t="s">
         <v>115</v>
       </c>
-      <c r="O36" t="s">
+      <c r="S36" t="s">
         <v>116</v>
       </c>
-      <c r="P36" t="s">
+      <c r="T36" t="s">
         <v>34</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="U36" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
-      <c r="A37">
+    <row r="37" spans="1:21">
+      <c r="A37" s="1">
+        <v>542000000000000</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.247</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37">
         <v>21</v>
       </c>
-      <c r="B37" t="s">
+      <c r="F37" t="s">
         <v>121</v>
       </c>
-      <c r="C37" s="1">
+      <c r="G37" s="1">
         <v>4.1000000000000004E-15</v>
       </c>
-      <c r="D37" s="1">
+      <c r="H37" s="1">
         <v>2.2999999999999999E-15</v>
       </c>
-      <c r="E37" t="s">
+      <c r="I37" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="1">
+      <c r="J37" s="1">
         <v>691000000000000</v>
       </c>
-      <c r="G37" t="s">
+      <c r="K37" t="s">
         <v>122</v>
       </c>
-      <c r="H37" t="s">
+      <c r="L37" t="s">
         <v>123</v>
       </c>
-      <c r="I37" t="s">
+      <c r="M37" t="s">
         <v>68</v>
       </c>
-      <c r="J37" t="s">
+      <c r="N37" t="s">
         <v>124</v>
       </c>
-      <c r="K37" t="s">
+      <c r="O37" t="s">
         <v>82</v>
       </c>
-      <c r="L37" t="s">
+      <c r="P37" t="s">
         <v>125</v>
       </c>
-      <c r="M37" t="s">
+      <c r="Q37" t="s">
         <v>72</v>
       </c>
-      <c r="O37" t="s">
+      <c r="S37" t="s">
         <v>33</v>
       </c>
-      <c r="P37" t="s">
+      <c r="T37" t="s">
         <v>126</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="U37" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
-      <c r="A38">
+    <row r="38" spans="1:21">
+      <c r="A38" s="1">
+        <v>542000000000000</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38">
         <v>22</v>
       </c>
-      <c r="B38" t="s">
+      <c r="F38" t="s">
         <v>127</v>
       </c>
-      <c r="C38">
+      <c r="G38">
         <v>10.97</v>
       </c>
-      <c r="D38">
+      <c r="H38">
         <v>0.13</v>
       </c>
-      <c r="E38" t="s">
+      <c r="I38" t="s">
         <v>80</v>
       </c>
-      <c r="F38" s="1">
+      <c r="J38" s="1">
         <v>681000000000000</v>
       </c>
-      <c r="G38" s="1">
+      <c r="K38" s="1">
         <v>0.17399999999999999</v>
       </c>
-      <c r="H38" s="1">
+      <c r="L38" s="1">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="I38" t="s">
-        <v>27</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="M38" t="s">
+        <v>27</v>
+      </c>
+      <c r="N38" t="s">
         <v>113</v>
       </c>
-      <c r="K38" t="s">
+      <c r="O38" t="s">
         <v>119</v>
       </c>
-      <c r="L38" t="s">
+      <c r="P38" t="s">
         <v>128</v>
       </c>
-      <c r="M38" t="s">
-        <v>31</v>
-      </c>
-      <c r="N38" t="s">
+      <c r="Q38" t="s">
+        <v>31</v>
+      </c>
+      <c r="R38" t="s">
         <v>115</v>
       </c>
-      <c r="O38" t="s">
+      <c r="S38" t="s">
         <v>116</v>
       </c>
-      <c r="P38" t="s">
+      <c r="T38" t="s">
         <v>34</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="U38" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
-      <c r="A39">
+    <row r="39" spans="1:21">
+      <c r="A39" s="1">
+        <v>542000000000000</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39">
         <v>23</v>
       </c>
-      <c r="B39" t="s">
+      <c r="F39" t="s">
         <v>129</v>
       </c>
-      <c r="C39">
+      <c r="G39">
         <v>10.88</v>
       </c>
-      <c r="D39">
+      <c r="H39">
         <v>0.09</v>
       </c>
-      <c r="E39" t="s">
+      <c r="I39" t="s">
         <v>80</v>
       </c>
-      <c r="F39" s="1">
+      <c r="J39" s="1">
         <v>681000000000000</v>
       </c>
-      <c r="G39" s="1">
+      <c r="K39" s="1">
         <v>0.19</v>
       </c>
-      <c r="H39" s="1">
+      <c r="L39" s="1">
         <v>1.6400000000000001E-2</v>
       </c>
-      <c r="I39" t="s">
-        <v>27</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="M39" t="s">
+        <v>27</v>
+      </c>
+      <c r="N39" t="s">
         <v>130</v>
       </c>
-      <c r="K39" t="s">
+      <c r="O39" t="s">
         <v>131</v>
       </c>
-      <c r="L39" t="s">
+      <c r="P39" t="s">
         <v>128</v>
       </c>
-      <c r="M39" t="s">
+      <c r="Q39" t="s">
         <v>132</v>
       </c>
-      <c r="N39" t="s">
+      <c r="R39" t="s">
         <v>133</v>
       </c>
-      <c r="O39" t="s">
+      <c r="S39" t="s">
         <v>57</v>
       </c>
-      <c r="P39" t="s">
+      <c r="T39" t="s">
         <v>134</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="U39" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
-      <c r="A40">
+    <row r="40" spans="1:21">
+      <c r="A40" s="1">
+        <v>468000000000000</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40">
         <v>24</v>
       </c>
-      <c r="B40" t="s">
+      <c r="F40" t="s">
         <v>135</v>
       </c>
-      <c r="C40">
+      <c r="G40">
         <v>10.69</v>
       </c>
-      <c r="D40">
+      <c r="H40">
         <v>0.09</v>
       </c>
-      <c r="E40" t="s">
+      <c r="I40" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="1">
+      <c r="J40" s="1">
         <v>681000000000000</v>
       </c>
-      <c r="G40" s="1">
+      <c r="K40" s="1">
         <v>0.22600000000000001</v>
       </c>
-      <c r="H40" s="1">
+      <c r="L40" s="1">
         <v>1.95E-2</v>
       </c>
-      <c r="I40" t="s">
-        <v>27</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="M40" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40" t="s">
         <v>130</v>
       </c>
-      <c r="K40" t="s">
+      <c r="O40" t="s">
         <v>131</v>
       </c>
-      <c r="L40" t="s">
+      <c r="P40" t="s">
         <v>128</v>
       </c>
-      <c r="M40" t="s">
+      <c r="Q40" t="s">
         <v>132</v>
       </c>
-      <c r="N40" t="s">
+      <c r="R40" t="s">
         <v>133</v>
       </c>
-      <c r="O40" t="s">
+      <c r="S40" t="s">
         <v>57</v>
       </c>
-      <c r="P40" t="s">
+      <c r="T40" t="s">
         <v>134</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="U40" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
-      <c r="A41">
+    <row r="41" spans="1:21">
+      <c r="A41" s="1">
+        <v>468000000000000</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41">
         <v>25</v>
       </c>
-      <c r="B41" t="s">
+      <c r="F41" t="s">
         <v>136</v>
       </c>
-      <c r="C41">
+      <c r="G41">
         <v>11.06</v>
       </c>
-      <c r="D41">
+      <c r="H41">
         <v>0.15</v>
       </c>
-      <c r="E41" t="s">
+      <c r="I41" t="s">
         <v>80</v>
       </c>
-      <c r="F41" s="1">
+      <c r="J41" s="1">
         <v>681000000000000</v>
       </c>
-      <c r="G41" s="1">
+      <c r="K41" s="1">
         <v>0.161</v>
       </c>
-      <c r="H41" s="1">
+      <c r="L41" s="1">
         <v>2.3800000000000002E-2</v>
       </c>
-      <c r="I41" t="s">
-        <v>27</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="M41" t="s">
+        <v>27</v>
+      </c>
+      <c r="N41" t="s">
         <v>113</v>
       </c>
-      <c r="K41" t="s">
+      <c r="O41" t="s">
         <v>119</v>
       </c>
-      <c r="L41" t="s">
+      <c r="P41" t="s">
         <v>128</v>
       </c>
-      <c r="M41" t="s">
-        <v>31</v>
-      </c>
-      <c r="N41" t="s">
+      <c r="Q41" t="s">
+        <v>31</v>
+      </c>
+      <c r="R41" t="s">
         <v>115</v>
       </c>
-      <c r="O41" t="s">
+      <c r="S41" t="s">
         <v>101</v>
       </c>
-      <c r="P41" t="s">
+      <c r="T41" t="s">
         <v>34</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="U41" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
-      <c r="A42">
+    <row r="42" spans="1:21">
+      <c r="A42" s="1">
+        <v>468000000000000</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.751</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42">
         <v>26</v>
       </c>
-      <c r="B42" t="s">
+      <c r="F42" t="s">
         <v>137</v>
       </c>
-      <c r="C42">
+      <c r="G42">
         <v>10.98</v>
       </c>
-      <c r="E42" t="s">
+      <c r="I42" t="s">
         <v>80</v>
       </c>
-      <c r="F42" s="1">
+      <c r="J42" s="1">
         <v>681000000000000</v>
       </c>
-      <c r="G42" s="1">
+      <c r="K42" s="1">
         <v>0.17299999999999999</v>
       </c>
-      <c r="I42" t="s">
-        <v>27</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="M42" t="s">
+        <v>27</v>
+      </c>
+      <c r="N42" t="s">
         <v>113</v>
       </c>
-      <c r="K42" t="s">
+      <c r="O42" t="s">
         <v>29</v>
       </c>
-      <c r="L42" t="s">
+      <c r="P42" t="s">
         <v>128</v>
       </c>
-      <c r="M42" t="s">
-        <v>31</v>
-      </c>
-      <c r="N42" t="s">
+      <c r="Q42" t="s">
+        <v>31</v>
+      </c>
+      <c r="R42" t="s">
         <v>115</v>
       </c>
-      <c r="O42" t="s">
+      <c r="S42" t="s">
         <v>101</v>
       </c>
-      <c r="P42" t="s">
+      <c r="T42" t="s">
         <v>34</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="U42" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
-      <c r="A43">
-        <v>27</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="43" spans="1:21">
+      <c r="A43" s="1">
+        <v>454000000000000</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43">
+        <v>27</v>
+      </c>
+      <c r="F43" t="s">
         <v>138</v>
       </c>
-      <c r="C43">
+      <c r="G43">
         <v>11.01</v>
       </c>
-      <c r="D43">
+      <c r="H43">
         <v>0.09</v>
       </c>
-      <c r="E43" t="s">
+      <c r="I43" t="s">
         <v>80</v>
       </c>
-      <c r="F43" s="1">
+      <c r="J43" s="1">
         <v>681000000000000</v>
       </c>
-      <c r="G43" s="1">
+      <c r="K43" s="1">
         <v>0.16700000000000001</v>
       </c>
-      <c r="H43" s="1">
+      <c r="L43" s="1">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="I43" t="s">
-        <v>27</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="M43" t="s">
+        <v>27</v>
+      </c>
+      <c r="N43" t="s">
         <v>130</v>
       </c>
-      <c r="K43" t="s">
+      <c r="O43" t="s">
         <v>131</v>
       </c>
-      <c r="L43" t="s">
+      <c r="P43" t="s">
         <v>128</v>
       </c>
-      <c r="M43" t="s">
+      <c r="Q43" t="s">
         <v>132</v>
       </c>
-      <c r="N43" t="s">
+      <c r="R43" t="s">
         <v>133</v>
       </c>
-      <c r="O43" t="s">
+      <c r="S43" t="s">
         <v>57</v>
       </c>
-      <c r="P43" t="s">
+      <c r="T43" t="s">
         <v>134</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="U43" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
-      <c r="A44">
+    <row r="44" spans="1:21">
+      <c r="A44" s="1">
+        <v>445000000000000</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.254</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44">
         <v>28</v>
       </c>
-      <c r="B44" t="s">
+      <c r="F44" t="s">
         <v>139</v>
       </c>
-      <c r="C44">
+      <c r="G44">
         <v>0.24</v>
       </c>
-      <c r="E44" t="s">
+      <c r="I44" t="s">
         <v>140</v>
       </c>
-      <c r="F44" s="1">
+      <c r="J44" s="1">
         <v>666000000000000</v>
       </c>
-      <c r="G44" s="1">
+      <c r="K44" s="1">
         <v>0.24</v>
       </c>
-      <c r="I44" t="s">
-        <v>27</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="M44" t="s">
+        <v>27</v>
+      </c>
+      <c r="N44" t="s">
         <v>88</v>
       </c>
-      <c r="K44" t="s">
+      <c r="O44" t="s">
         <v>29</v>
       </c>
-      <c r="L44" t="s">
+      <c r="P44" t="s">
         <v>141</v>
       </c>
-      <c r="M44" t="s">
-        <v>31</v>
-      </c>
-      <c r="N44" t="s">
+      <c r="Q44" t="s">
+        <v>31</v>
+      </c>
+      <c r="R44" t="s">
         <v>90</v>
       </c>
-      <c r="O44" t="s">
+      <c r="S44" t="s">
         <v>79</v>
       </c>
-      <c r="P44" t="s">
+      <c r="T44" t="s">
         <v>34</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="U44" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
-      <c r="A45">
+    <row r="45" spans="1:21">
+      <c r="A45" s="1">
+        <v>445000000000000</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45">
         <v>29</v>
       </c>
-      <c r="B45" t="s">
+      <c r="F45" t="s">
         <v>142</v>
       </c>
-      <c r="C45">
+      <c r="G45">
         <v>0.48</v>
       </c>
-      <c r="E45" t="s">
+      <c r="I45" t="s">
         <v>140</v>
       </c>
-      <c r="F45" s="1">
+      <c r="J45" s="1">
         <v>545000000000000</v>
       </c>
-      <c r="G45" s="1">
+      <c r="K45" s="1">
         <v>0.48</v>
       </c>
-      <c r="I45" t="s">
-        <v>27</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="M45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N45" t="s">
         <v>88</v>
       </c>
-      <c r="K45" t="s">
+      <c r="O45" t="s">
         <v>29</v>
       </c>
-      <c r="L45" t="s">
+      <c r="P45" t="s">
         <v>143</v>
       </c>
-      <c r="M45" t="s">
-        <v>31</v>
-      </c>
-      <c r="N45" t="s">
+      <c r="Q45" t="s">
+        <v>31</v>
+      </c>
+      <c r="R45" t="s">
         <v>90</v>
       </c>
-      <c r="O45" t="s">
+      <c r="S45" t="s">
         <v>79</v>
       </c>
-      <c r="P45" t="s">
+      <c r="T45" t="s">
         <v>34</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="U45" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
-      <c r="A46">
+    <row r="46" spans="1:21">
+      <c r="A46" s="1">
+        <v>445000000000000</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46">
         <v>30</v>
       </c>
-      <c r="B46" t="s">
+      <c r="F46" t="s">
         <v>144</v>
       </c>
-      <c r="C46">
+      <c r="G46">
         <v>10.62</v>
       </c>
-      <c r="D46">
+      <c r="H46">
         <v>0.02</v>
       </c>
-      <c r="E46" t="s">
+      <c r="I46" t="s">
         <v>80</v>
       </c>
-      <c r="F46" s="1">
+      <c r="J46" s="1">
         <v>542000000000000</v>
       </c>
-      <c r="G46" s="1">
+      <c r="K46" s="1">
         <v>0.20599999999999999</v>
       </c>
-      <c r="H46" s="1">
+      <c r="L46" s="1">
         <v>3.82E-3</v>
       </c>
-      <c r="I46" t="s">
-        <v>27</v>
-      </c>
-      <c r="J46" t="s">
+      <c r="M46" t="s">
+        <v>27</v>
+      </c>
+      <c r="N46" t="s">
         <v>145</v>
       </c>
-      <c r="K46" t="s">
+      <c r="O46" t="s">
         <v>39</v>
       </c>
-      <c r="L46" t="s">
+      <c r="P46" t="s">
         <v>146</v>
       </c>
-      <c r="M46" t="s">
-        <v>31</v>
-      </c>
-      <c r="O46" t="s">
+      <c r="Q46" t="s">
+        <v>31</v>
+      </c>
+      <c r="S46" t="s">
         <v>83</v>
       </c>
-      <c r="P46" t="s">
+      <c r="T46" t="s">
         <v>147</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="U46" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
-      <c r="A47">
-        <v>31</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="47" spans="1:21">
+      <c r="A47" s="1">
+        <v>445000000000000</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47">
+        <v>31</v>
+      </c>
+      <c r="F47" t="s">
         <v>144</v>
       </c>
-      <c r="C47">
+      <c r="G47">
         <v>11.06</v>
       </c>
-      <c r="D47">
+      <c r="H47">
         <v>0.02</v>
       </c>
-      <c r="E47" t="s">
+      <c r="I47" t="s">
         <v>80</v>
       </c>
-      <c r="F47" s="1">
+      <c r="J47" s="1">
         <v>542000000000000</v>
       </c>
-      <c r="G47" s="1">
+      <c r="K47" s="1">
         <v>0.13700000000000001</v>
       </c>
-      <c r="H47" s="1">
+      <c r="L47" s="1">
         <v>2.5500000000000002E-3</v>
       </c>
-      <c r="I47" t="s">
-        <v>27</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="M47" t="s">
+        <v>27</v>
+      </c>
+      <c r="N47" t="s">
         <v>145</v>
       </c>
-      <c r="K47" t="s">
+      <c r="O47" t="s">
         <v>39</v>
       </c>
-      <c r="L47" t="s">
+      <c r="P47" t="s">
         <v>146</v>
       </c>
-      <c r="M47" t="s">
-        <v>31</v>
-      </c>
-      <c r="O47" t="s">
+      <c r="Q47" t="s">
+        <v>31</v>
+      </c>
+      <c r="S47" t="s">
         <v>83</v>
       </c>
-      <c r="P47" t="s">
+      <c r="T47" t="s">
         <v>148</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="U47" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
-      <c r="A48">
+    <row r="48" spans="1:21">
+      <c r="A48" s="1">
+        <v>445000000000000</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48">
         <v>32</v>
       </c>
-      <c r="B48" t="s">
+      <c r="F48" t="s">
         <v>144</v>
       </c>
-      <c r="C48">
+      <c r="G48">
         <v>11.07</v>
       </c>
-      <c r="D48">
+      <c r="H48">
         <v>0.02</v>
       </c>
-      <c r="E48" t="s">
+      <c r="I48" t="s">
         <v>80</v>
       </c>
-      <c r="F48" s="1">
+      <c r="J48" s="1">
         <v>542000000000000</v>
       </c>
-      <c r="G48" s="1">
+      <c r="K48" s="1">
         <v>0.13600000000000001</v>
       </c>
-      <c r="H48" s="1">
+      <c r="L48" s="1">
         <v>2.5300000000000001E-3</v>
       </c>
-      <c r="I48" t="s">
-        <v>27</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="M48" t="s">
+        <v>27</v>
+      </c>
+      <c r="N48" t="s">
         <v>145</v>
       </c>
-      <c r="K48" t="s">
+      <c r="O48" t="s">
         <v>39</v>
       </c>
-      <c r="L48" t="s">
+      <c r="P48" t="s">
         <v>146</v>
       </c>
-      <c r="M48" t="s">
-        <v>31</v>
-      </c>
-      <c r="O48" t="s">
+      <c r="Q48" t="s">
+        <v>31</v>
+      </c>
+      <c r="S48" t="s">
         <v>83</v>
       </c>
-      <c r="P48" t="s">
+      <c r="T48" t="s">
         <v>148</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="U48" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
-      <c r="A49">
+    <row r="49" spans="1:21">
+      <c r="A49" s="1">
+        <v>428000000000000</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49">
         <v>33</v>
       </c>
-      <c r="B49" t="s">
+      <c r="F49" t="s">
         <v>144</v>
       </c>
-      <c r="C49">
+      <c r="G49">
         <v>11.21</v>
       </c>
-      <c r="D49">
+      <c r="H49">
         <v>0.02</v>
       </c>
-      <c r="E49" t="s">
+      <c r="I49" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="1">
+      <c r="J49" s="1">
         <v>542000000000000</v>
       </c>
-      <c r="G49" s="1">
+      <c r="K49" s="1">
         <v>0.11899999999999999</v>
       </c>
-      <c r="H49" s="1">
+      <c r="L49" s="1">
         <v>2.2200000000000002E-3</v>
       </c>
-      <c r="I49" t="s">
-        <v>27</v>
-      </c>
-      <c r="J49" t="s">
+      <c r="M49" t="s">
+        <v>27</v>
+      </c>
+      <c r="N49" t="s">
         <v>149</v>
       </c>
-      <c r="K49" t="s">
+      <c r="O49" t="s">
         <v>39</v>
       </c>
-      <c r="L49" t="s">
+      <c r="P49" t="s">
         <v>146</v>
       </c>
-      <c r="M49" t="s">
-        <v>31</v>
-      </c>
-      <c r="O49" t="s">
+      <c r="Q49" t="s">
+        <v>31</v>
+      </c>
+      <c r="S49" t="s">
         <v>83</v>
       </c>
-      <c r="P49" t="s">
+      <c r="T49" t="s">
         <v>150</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="U49" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
-      <c r="A50">
+    <row r="50" spans="1:21">
+      <c r="A50" s="1">
+        <v>428000000000000</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.437</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50">
         <v>34</v>
       </c>
-      <c r="B50" t="s">
+      <c r="F50" t="s">
         <v>144</v>
       </c>
-      <c r="C50">
+      <c r="G50">
         <v>10.4</v>
       </c>
-      <c r="D50">
+      <c r="H50">
         <v>0.02</v>
       </c>
-      <c r="E50" t="s">
+      <c r="I50" t="s">
         <v>80</v>
       </c>
-      <c r="F50" s="1">
+      <c r="J50" s="1">
         <v>542000000000000</v>
       </c>
-      <c r="G50" s="1">
+      <c r="K50" s="1">
         <v>0.252</v>
       </c>
-      <c r="H50" s="1">
+      <c r="L50" s="1">
         <v>4.6800000000000001E-3</v>
       </c>
-      <c r="I50" t="s">
-        <v>27</v>
-      </c>
-      <c r="J50" t="s">
+      <c r="M50" t="s">
+        <v>27</v>
+      </c>
+      <c r="N50" t="s">
         <v>149</v>
       </c>
-      <c r="K50" t="s">
+      <c r="O50" t="s">
         <v>39</v>
       </c>
-      <c r="L50" t="s">
+      <c r="P50" t="s">
         <v>146</v>
       </c>
-      <c r="M50" t="s">
-        <v>31</v>
-      </c>
-      <c r="O50" t="s">
+      <c r="Q50" t="s">
+        <v>31</v>
+      </c>
+      <c r="S50" t="s">
         <v>83</v>
       </c>
-      <c r="P50" t="s">
+      <c r="T50" t="s">
         <v>151</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="U50" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
-      <c r="A51">
+    <row r="51" spans="1:21">
+      <c r="A51" s="1">
+        <v>428000000000000</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="C51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51">
         <v>35</v>
       </c>
-      <c r="B51" t="s">
+      <c r="F51" t="s">
         <v>144</v>
       </c>
-      <c r="C51">
+      <c r="G51">
         <v>10.6</v>
       </c>
-      <c r="D51">
+      <c r="H51">
         <v>0.02</v>
       </c>
-      <c r="E51" t="s">
+      <c r="I51" t="s">
         <v>80</v>
       </c>
-      <c r="F51" s="1">
+      <c r="J51" s="1">
         <v>542000000000000</v>
       </c>
-      <c r="G51" s="1">
+      <c r="K51" s="1">
         <v>0.21</v>
       </c>
-      <c r="H51" s="1">
+      <c r="L51" s="1">
         <v>3.8899999999999998E-3</v>
       </c>
-      <c r="I51" t="s">
-        <v>27</v>
-      </c>
-      <c r="J51" t="s">
+      <c r="M51" t="s">
+        <v>27</v>
+      </c>
+      <c r="N51" t="s">
         <v>145</v>
       </c>
-      <c r="K51" t="s">
+      <c r="O51" t="s">
         <v>39</v>
       </c>
-      <c r="L51" t="s">
+      <c r="P51" t="s">
         <v>146</v>
       </c>
-      <c r="M51" t="s">
-        <v>31</v>
-      </c>
-      <c r="O51" t="s">
+      <c r="Q51" t="s">
+        <v>31</v>
+      </c>
+      <c r="S51" t="s">
         <v>83</v>
       </c>
-      <c r="P51" t="s">
+      <c r="T51" t="s">
         <v>147</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="U51" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
-      <c r="A52">
+    <row r="52" spans="1:21">
+      <c r="A52" s="1">
+        <v>370000000000000</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="C52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52">
         <v>36</v>
       </c>
-      <c r="B52" t="s">
+      <c r="F52" t="s">
         <v>144</v>
       </c>
-      <c r="C52">
+      <c r="G52">
         <v>10.61</v>
       </c>
-      <c r="D52">
+      <c r="H52">
         <v>0.02</v>
       </c>
-      <c r="E52" t="s">
+      <c r="I52" t="s">
         <v>80</v>
       </c>
-      <c r="F52" s="1">
+      <c r="J52" s="1">
         <v>542000000000000</v>
       </c>
-      <c r="G52" s="1">
+      <c r="K52" s="1">
         <v>0.20699999999999999</v>
       </c>
-      <c r="H52" s="1">
+      <c r="L52" s="1">
         <v>3.8600000000000001E-3</v>
       </c>
-      <c r="I52" t="s">
-        <v>27</v>
-      </c>
-      <c r="J52" t="s">
+      <c r="M52" t="s">
+        <v>27</v>
+      </c>
+      <c r="N52" t="s">
         <v>149</v>
       </c>
-      <c r="K52" t="s">
+      <c r="O52" t="s">
         <v>39</v>
       </c>
-      <c r="L52" t="s">
+      <c r="P52" t="s">
         <v>146</v>
       </c>
-      <c r="M52" t="s">
-        <v>31</v>
-      </c>
-      <c r="O52" t="s">
+      <c r="Q52" t="s">
+        <v>31</v>
+      </c>
+      <c r="S52" t="s">
         <v>83</v>
       </c>
-      <c r="P52" t="s">
+      <c r="T52" t="s">
         <v>152</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="U52" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
-      <c r="A53">
+    <row r="53" spans="1:21">
+      <c r="A53" s="1">
+        <v>240000000000000</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53">
         <v>37</v>
       </c>
-      <c r="B53" t="s">
+      <c r="F53" t="s">
         <v>144</v>
       </c>
-      <c r="C53">
+      <c r="G53">
         <v>10.86</v>
       </c>
-      <c r="D53">
+      <c r="H53">
         <v>0.02</v>
       </c>
-      <c r="E53" t="s">
+      <c r="I53" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="1">
+      <c r="J53" s="1">
         <v>542000000000000</v>
       </c>
-      <c r="G53" s="1">
+      <c r="K53" s="1">
         <v>0.16500000000000001</v>
       </c>
-      <c r="H53" s="1">
+      <c r="L53" s="1">
         <v>3.0699999999999998E-3</v>
       </c>
-      <c r="I53" t="s">
-        <v>27</v>
-      </c>
-      <c r="J53" t="s">
+      <c r="M53" t="s">
+        <v>27</v>
+      </c>
+      <c r="N53" t="s">
         <v>149</v>
       </c>
-      <c r="K53" t="s">
+      <c r="O53" t="s">
         <v>39</v>
       </c>
-      <c r="L53" t="s">
+      <c r="P53" t="s">
         <v>146</v>
       </c>
-      <c r="M53" t="s">
-        <v>31</v>
-      </c>
-      <c r="O53" t="s">
+      <c r="Q53" t="s">
+        <v>31</v>
+      </c>
+      <c r="S53" t="s">
         <v>83</v>
       </c>
-      <c r="P53" t="s">
+      <c r="T53" t="s">
         <v>153</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="U53" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
-      <c r="A54">
+    <row r="54" spans="1:21">
+      <c r="A54" s="1">
+        <v>240000000000000</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="C54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54">
         <v>38</v>
       </c>
-      <c r="B54" t="s">
+      <c r="F54" t="s">
         <v>144</v>
       </c>
-      <c r="C54">
+      <c r="G54">
         <v>10.42</v>
       </c>
-      <c r="D54">
+      <c r="H54">
         <v>0.02</v>
       </c>
-      <c r="E54" t="s">
+      <c r="I54" t="s">
         <v>80</v>
       </c>
-      <c r="F54" s="1">
+      <c r="J54" s="1">
         <v>542000000000000</v>
       </c>
-      <c r="G54" s="1">
+      <c r="K54" s="1">
         <v>0.247</v>
       </c>
-      <c r="H54" s="1">
+      <c r="L54" s="1">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="I54" t="s">
-        <v>27</v>
-      </c>
-      <c r="J54" t="s">
+      <c r="M54" t="s">
+        <v>27</v>
+      </c>
+      <c r="N54" t="s">
         <v>145</v>
       </c>
-      <c r="K54" t="s">
+      <c r="O54" t="s">
         <v>39</v>
       </c>
-      <c r="L54" t="s">
+      <c r="P54" t="s">
         <v>146</v>
       </c>
-      <c r="M54" t="s">
-        <v>31</v>
-      </c>
-      <c r="O54" t="s">
+      <c r="Q54" t="s">
+        <v>31</v>
+      </c>
+      <c r="S54" t="s">
         <v>83</v>
       </c>
-      <c r="P54" t="s">
+      <c r="T54" t="s">
         <v>154</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="U54" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
-      <c r="A55">
+    <row r="55" spans="1:21">
+      <c r="A55" s="1">
+        <v>240000000000000</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55">
         <v>39</v>
       </c>
-      <c r="B55" t="s">
+      <c r="F55" t="s">
         <v>155</v>
       </c>
-      <c r="C55">
+      <c r="G55">
         <v>10.029999999999999</v>
       </c>
-      <c r="E55" t="s">
+      <c r="I55" t="s">
         <v>80</v>
       </c>
-      <c r="F55" s="1">
+      <c r="J55" s="1">
         <v>542000000000000</v>
       </c>
-      <c r="G55" s="1">
+      <c r="K55" s="1">
         <v>0.35399999999999998</v>
       </c>
-      <c r="I55" t="s">
-        <v>27</v>
-      </c>
-      <c r="J55" t="s">
+      <c r="M55" t="s">
+        <v>27</v>
+      </c>
+      <c r="N55" t="s">
         <v>113</v>
       </c>
-      <c r="K55" t="s">
+      <c r="O55" t="s">
         <v>29</v>
       </c>
-      <c r="L55" t="s">
+      <c r="P55" t="s">
         <v>156</v>
       </c>
-      <c r="M55" t="s">
-        <v>31</v>
-      </c>
-      <c r="N55" t="s">
+      <c r="Q55" t="s">
+        <v>31</v>
+      </c>
+      <c r="R55" t="s">
         <v>115</v>
       </c>
-      <c r="O55" t="s">
+      <c r="S55" t="s">
         <v>116</v>
       </c>
-      <c r="P55" t="s">
+      <c r="T55" t="s">
         <v>34</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="U55" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
-      <c r="A56">
+    <row r="56" spans="1:21">
+      <c r="A56" s="1">
+        <v>240000000000000</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56">
         <v>40</v>
       </c>
-      <c r="B56" t="s">
+      <c r="F56" t="s">
         <v>157</v>
       </c>
-      <c r="C56">
+      <c r="G56">
         <v>10</v>
       </c>
-      <c r="D56">
+      <c r="H56">
         <v>0.13</v>
       </c>
-      <c r="E56" t="s">
+      <c r="I56" t="s">
         <v>80</v>
       </c>
-      <c r="F56" s="1">
+      <c r="J56" s="1">
         <v>542000000000000</v>
       </c>
-      <c r="G56" s="1">
+      <c r="K56" s="1">
         <v>0.36399999999999999</v>
       </c>
-      <c r="H56" s="1">
+      <c r="L56" s="1">
         <v>4.6399999999999997E-2</v>
       </c>
-      <c r="I56" t="s">
-        <v>27</v>
-      </c>
-      <c r="J56" t="s">
+      <c r="M56" t="s">
+        <v>27</v>
+      </c>
+      <c r="N56" t="s">
         <v>113</v>
       </c>
-      <c r="K56" t="s">
+      <c r="O56" t="s">
         <v>119</v>
       </c>
-      <c r="L56" t="s">
+      <c r="P56" t="s">
         <v>156</v>
       </c>
-      <c r="M56" t="s">
-        <v>31</v>
-      </c>
-      <c r="N56" t="s">
+      <c r="Q56" t="s">
+        <v>31</v>
+      </c>
+      <c r="R56" t="s">
         <v>115</v>
       </c>
-      <c r="O56" t="s">
+      <c r="S56" t="s">
         <v>116</v>
       </c>
-      <c r="P56" t="s">
+      <c r="T56" t="s">
         <v>34</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="U56" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
-      <c r="A57">
+    <row r="57" spans="1:21">
+      <c r="A57" s="1">
+        <v>240000000000000</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57">
         <v>41</v>
       </c>
-      <c r="B57" t="s">
+      <c r="F57" t="s">
         <v>158</v>
       </c>
-      <c r="C57">
+      <c r="G57">
         <v>9.43</v>
       </c>
-      <c r="D57">
+      <c r="H57">
         <v>0.09</v>
       </c>
-      <c r="E57" t="s">
+      <c r="I57" t="s">
         <v>80</v>
       </c>
-      <c r="F57" s="1">
+      <c r="J57" s="1">
         <v>468000000000000</v>
       </c>
-      <c r="G57" s="1">
+      <c r="K57" s="1">
         <v>0.52100000000000002</v>
       </c>
-      <c r="H57" s="1">
+      <c r="L57" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="I57" t="s">
-        <v>27</v>
-      </c>
-      <c r="J57" t="s">
+      <c r="M57" t="s">
+        <v>27</v>
+      </c>
+      <c r="N57" t="s">
         <v>130</v>
       </c>
-      <c r="K57" t="s">
+      <c r="O57" t="s">
         <v>131</v>
       </c>
-      <c r="L57" t="s">
+      <c r="P57" t="s">
         <v>159</v>
       </c>
-      <c r="M57" t="s">
+      <c r="Q57" t="s">
         <v>132</v>
       </c>
-      <c r="N57" t="s">
+      <c r="R57" t="s">
         <v>133</v>
       </c>
-      <c r="O57" t="s">
+      <c r="S57" t="s">
         <v>57</v>
       </c>
-      <c r="P57" t="s">
+      <c r="T57" t="s">
         <v>134</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="U57" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
-      <c r="A58">
+    <row r="58" spans="1:21">
+      <c r="A58" s="1">
+        <v>240000000000000</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.503</v>
+      </c>
+      <c r="C58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58">
         <v>42</v>
       </c>
-      <c r="B58" t="s">
+      <c r="F58" t="s">
         <v>160</v>
       </c>
-      <c r="C58">
+      <c r="G58">
         <v>9.26</v>
       </c>
-      <c r="D58">
+      <c r="H58">
         <v>0.09</v>
       </c>
-      <c r="E58" t="s">
+      <c r="I58" t="s">
         <v>80</v>
       </c>
-      <c r="F58" s="1">
+      <c r="J58" s="1">
         <v>468000000000000</v>
       </c>
-      <c r="G58" s="1">
+      <c r="K58" s="1">
         <v>0.60899999999999999</v>
       </c>
-      <c r="H58" s="1">
+      <c r="L58" s="1">
         <v>5.2699999999999997E-2</v>
       </c>
-      <c r="I58" t="s">
-        <v>27</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="M58" t="s">
+        <v>27</v>
+      </c>
+      <c r="N58" t="s">
         <v>130</v>
       </c>
-      <c r="K58" t="s">
+      <c r="O58" t="s">
         <v>131</v>
       </c>
-      <c r="L58" t="s">
+      <c r="P58" t="s">
         <v>159</v>
       </c>
-      <c r="M58" t="s">
+      <c r="Q58" t="s">
         <v>132</v>
       </c>
-      <c r="N58" t="s">
+      <c r="R58" t="s">
         <v>133</v>
       </c>
-      <c r="O58" t="s">
+      <c r="S58" t="s">
         <v>57</v>
       </c>
-      <c r="P58" t="s">
+      <c r="T58" t="s">
         <v>134</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="U58" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
-      <c r="A59">
+    <row r="59" spans="1:21">
+      <c r="A59" s="1">
+        <v>240000000000000</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="C59" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59">
         <v>43</v>
       </c>
-      <c r="B59" t="s">
+      <c r="F59" t="s">
         <v>161</v>
       </c>
-      <c r="C59">
+      <c r="G59">
         <v>9.0299999999999994</v>
       </c>
-      <c r="D59">
+      <c r="H59">
         <v>0.09</v>
       </c>
-      <c r="E59" t="s">
+      <c r="I59" t="s">
         <v>80</v>
       </c>
-      <c r="F59" s="1">
+      <c r="J59" s="1">
         <v>468000000000000</v>
       </c>
-      <c r="G59" s="1">
+      <c r="K59" s="1">
         <v>0.751</v>
       </c>
-      <c r="H59" s="1">
+      <c r="L59" s="1">
         <v>6.4899999999999999E-2</v>
       </c>
-      <c r="I59" t="s">
-        <v>27</v>
-      </c>
-      <c r="J59" t="s">
+      <c r="M59" t="s">
+        <v>27</v>
+      </c>
+      <c r="N59" t="s">
         <v>130</v>
       </c>
-      <c r="K59" t="s">
+      <c r="O59" t="s">
         <v>131</v>
       </c>
-      <c r="L59" t="s">
+      <c r="P59" t="s">
         <v>159</v>
       </c>
-      <c r="M59" t="s">
+      <c r="Q59" t="s">
         <v>132</v>
       </c>
-      <c r="N59" t="s">
+      <c r="R59" t="s">
         <v>133</v>
       </c>
-      <c r="O59" t="s">
+      <c r="S59" t="s">
         <v>57</v>
       </c>
-      <c r="P59" t="s">
+      <c r="T59" t="s">
         <v>134</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="U59" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
-      <c r="A60">
+    <row r="60" spans="1:21">
+      <c r="A60" s="1">
+        <v>182000000000000</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="C60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60">
         <v>44</v>
       </c>
-      <c r="B60" t="s">
+      <c r="F60" t="s">
         <v>162</v>
       </c>
-      <c r="C60">
+      <c r="G60">
         <v>0.48</v>
       </c>
-      <c r="E60" t="s">
+      <c r="I60" t="s">
         <v>140</v>
       </c>
-      <c r="F60" s="1">
+      <c r="J60" s="1">
         <v>454000000000000</v>
       </c>
-      <c r="G60" s="1">
+      <c r="K60" s="1">
         <v>0.48</v>
       </c>
-      <c r="I60" t="s">
-        <v>27</v>
-      </c>
-      <c r="J60" t="s">
+      <c r="M60" t="s">
+        <v>27</v>
+      </c>
+      <c r="N60" t="s">
         <v>88</v>
       </c>
-      <c r="K60" t="s">
+      <c r="O60" t="s">
         <v>29</v>
       </c>
-      <c r="L60" t="s">
+      <c r="P60" t="s">
         <v>163</v>
       </c>
-      <c r="M60" t="s">
-        <v>31</v>
-      </c>
-      <c r="N60" t="s">
+      <c r="Q60" t="s">
+        <v>31</v>
+      </c>
+      <c r="R60" t="s">
         <v>90</v>
       </c>
-      <c r="O60" t="s">
+      <c r="S60" t="s">
         <v>79</v>
       </c>
-      <c r="P60" t="s">
+      <c r="T60" t="s">
         <v>34</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="U60" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
-      <c r="A61">
+    <row r="61" spans="1:21">
+      <c r="A61" s="1">
+        <v>182000000000000</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="C61" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61">
         <v>45</v>
       </c>
-      <c r="B61" t="s">
+      <c r="F61" t="s">
         <v>164</v>
       </c>
-      <c r="C61" s="1">
+      <c r="G61" s="1">
         <v>7.4999999999999996E-15</v>
       </c>
-      <c r="D61" s="1">
+      <c r="H61" s="1">
         <v>4.0000000000000003E-15</v>
       </c>
-      <c r="E61" t="s">
+      <c r="I61" t="s">
         <v>37</v>
       </c>
-      <c r="F61" s="1">
+      <c r="J61" s="1">
         <v>446000000000000</v>
       </c>
-      <c r="G61" t="s">
+      <c r="K61" t="s">
         <v>165</v>
       </c>
-      <c r="H61" t="s">
+      <c r="L61" t="s">
         <v>166</v>
       </c>
-      <c r="I61" t="s">
+      <c r="M61" t="s">
         <v>68</v>
       </c>
-      <c r="J61" t="s">
+      <c r="N61" t="s">
         <v>124</v>
       </c>
-      <c r="K61" t="s">
+      <c r="O61" t="s">
         <v>82</v>
       </c>
-      <c r="L61" t="s">
+      <c r="P61" t="s">
         <v>167</v>
       </c>
-      <c r="M61" t="s">
+      <c r="Q61" t="s">
         <v>72</v>
       </c>
-      <c r="O61" t="s">
+      <c r="S61" t="s">
         <v>33</v>
       </c>
-      <c r="P61" t="s">
+      <c r="T61" t="s">
         <v>126</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="U61" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
-      <c r="A62">
+    <row r="62" spans="1:21">
+      <c r="A62" s="1">
+        <v>182000000000000</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62">
         <v>46</v>
       </c>
-      <c r="B62" t="s">
+      <c r="F62" t="s">
         <v>168</v>
       </c>
-      <c r="C62">
+      <c r="G62">
         <v>10.1</v>
       </c>
-      <c r="D62">
+      <c r="H62">
         <v>0.02</v>
       </c>
-      <c r="E62" t="s">
+      <c r="I62" t="s">
         <v>80</v>
       </c>
-      <c r="F62" s="1">
+      <c r="J62" s="1">
         <v>445000000000000</v>
       </c>
-      <c r="G62" s="1">
+      <c r="K62" s="1">
         <v>0.254</v>
       </c>
-      <c r="H62" s="1">
+      <c r="L62" s="1">
         <v>4.7099999999999998E-3</v>
       </c>
-      <c r="I62" t="s">
-        <v>27</v>
-      </c>
-      <c r="J62" t="s">
+      <c r="M62" t="s">
+        <v>27</v>
+      </c>
+      <c r="N62" t="s">
         <v>145</v>
       </c>
-      <c r="K62" t="s">
+      <c r="O62" t="s">
         <v>39</v>
       </c>
-      <c r="L62" t="s">
+      <c r="P62" t="s">
         <v>169</v>
       </c>
-      <c r="M62" t="s">
-        <v>31</v>
-      </c>
-      <c r="O62" t="s">
+      <c r="Q62" t="s">
+        <v>31</v>
+      </c>
+      <c r="S62" t="s">
         <v>83</v>
       </c>
-      <c r="P62" t="s">
+      <c r="T62" t="s">
         <v>147</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="U62" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
-      <c r="A63">
+    <row r="63" spans="1:21">
+      <c r="A63" s="1">
+        <v>182000000000000</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63">
         <v>47</v>
       </c>
-      <c r="B63" t="s">
+      <c r="F63" t="s">
         <v>168</v>
       </c>
-      <c r="C63">
+      <c r="G63">
         <v>10.57</v>
       </c>
-      <c r="D63">
+      <c r="H63">
         <v>0.02</v>
       </c>
-      <c r="E63" t="s">
+      <c r="I63" t="s">
         <v>80</v>
       </c>
-      <c r="F63" s="1">
+      <c r="J63" s="1">
         <v>445000000000000</v>
       </c>
-      <c r="G63" s="1">
+      <c r="K63" s="1">
         <v>0.16500000000000001</v>
       </c>
-      <c r="H63" s="1">
+      <c r="L63" s="1">
         <v>3.0599999999999998E-3</v>
       </c>
-      <c r="I63" t="s">
-        <v>27</v>
-      </c>
-      <c r="J63" t="s">
+      <c r="M63" t="s">
+        <v>27</v>
+      </c>
+      <c r="N63" t="s">
         <v>145</v>
       </c>
-      <c r="K63" t="s">
+      <c r="O63" t="s">
         <v>39</v>
       </c>
-      <c r="L63" t="s">
+      <c r="P63" t="s">
         <v>169</v>
       </c>
-      <c r="M63" t="s">
-        <v>31</v>
-      </c>
-      <c r="O63" t="s">
+      <c r="Q63" t="s">
+        <v>31</v>
+      </c>
+      <c r="S63" t="s">
         <v>83</v>
       </c>
-      <c r="P63" t="s">
+      <c r="T63" t="s">
         <v>148</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="U63" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
-      <c r="A64">
+    <row r="64" spans="1:21">
+      <c r="A64" s="1">
+        <v>182000000000000</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="C64" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64">
         <v>48</v>
       </c>
-      <c r="B64" t="s">
+      <c r="F64" t="s">
         <v>168</v>
       </c>
-      <c r="C64">
+      <c r="G64">
         <v>10.6</v>
       </c>
-      <c r="D64">
+      <c r="H64">
         <v>0.02</v>
       </c>
-      <c r="E64" t="s">
+      <c r="I64" t="s">
         <v>80</v>
       </c>
-      <c r="F64" s="1">
+      <c r="J64" s="1">
         <v>445000000000000</v>
       </c>
-      <c r="G64" s="1">
+      <c r="K64" s="1">
         <v>0.16</v>
       </c>
-      <c r="H64" s="1">
+      <c r="L64" s="1">
         <v>2.97E-3</v>
       </c>
-      <c r="I64" t="s">
-        <v>27</v>
-      </c>
-      <c r="J64" t="s">
+      <c r="M64" t="s">
+        <v>27</v>
+      </c>
+      <c r="N64" t="s">
         <v>145</v>
       </c>
-      <c r="K64" t="s">
+      <c r="O64" t="s">
         <v>39</v>
       </c>
-      <c r="L64" t="s">
+      <c r="P64" t="s">
         <v>169</v>
       </c>
-      <c r="M64" t="s">
-        <v>31</v>
-      </c>
-      <c r="O64" t="s">
+      <c r="Q64" t="s">
+        <v>31</v>
+      </c>
+      <c r="S64" t="s">
         <v>83</v>
       </c>
-      <c r="P64" t="s">
+      <c r="T64" t="s">
         <v>148</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="U64" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
-      <c r="A65">
+    <row r="65" spans="1:21">
+      <c r="A65" s="1">
+        <v>182000000000000</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="C65" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65">
         <v>49</v>
       </c>
-      <c r="B65" t="s">
+      <c r="F65" t="s">
         <v>168</v>
       </c>
-      <c r="C65">
+      <c r="G65">
         <v>10.07</v>
       </c>
-      <c r="D65">
+      <c r="H65">
         <v>0.02</v>
       </c>
-      <c r="E65" t="s">
+      <c r="I65" t="s">
         <v>80</v>
       </c>
-      <c r="F65" s="1">
+      <c r="J65" s="1">
         <v>445000000000000</v>
       </c>
-      <c r="G65" s="1">
+      <c r="K65" s="1">
         <v>0.26100000000000001</v>
       </c>
-      <c r="H65" s="1">
+      <c r="L65" s="1">
         <v>4.8500000000000001E-3</v>
       </c>
-      <c r="I65" t="s">
-        <v>27</v>
-      </c>
-      <c r="J65" t="s">
+      <c r="M65" t="s">
+        <v>27</v>
+      </c>
+      <c r="N65" t="s">
         <v>145</v>
       </c>
-      <c r="K65" t="s">
+      <c r="O65" t="s">
         <v>39</v>
       </c>
-      <c r="L65" t="s">
+      <c r="P65" t="s">
         <v>169</v>
       </c>
-      <c r="M65" t="s">
-        <v>31</v>
-      </c>
-      <c r="O65" t="s">
+      <c r="Q65" t="s">
+        <v>31</v>
+      </c>
+      <c r="S65" t="s">
         <v>83</v>
       </c>
-      <c r="P65" t="s">
+      <c r="T65" t="s">
         <v>147</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="U65" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
-      <c r="A66">
+    <row r="66" spans="1:21">
+      <c r="A66" s="1">
+        <v>182000000000000</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="C66" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66">
         <v>50</v>
       </c>
-      <c r="B66" t="s">
+      <c r="F66" t="s">
         <v>168</v>
       </c>
-      <c r="C66">
+      <c r="G66">
         <v>9.9</v>
       </c>
-      <c r="D66">
+      <c r="H66">
         <v>0.02</v>
       </c>
-      <c r="E66" t="s">
+      <c r="I66" t="s">
         <v>80</v>
       </c>
-      <c r="F66" s="1">
+      <c r="J66" s="1">
         <v>445000000000000</v>
       </c>
-      <c r="G66" s="1">
+      <c r="K66" s="1">
         <v>0.30499999999999999</v>
       </c>
-      <c r="H66" s="1">
+      <c r="L66" s="1">
         <v>5.6699999999999997E-3</v>
       </c>
-      <c r="I66" t="s">
-        <v>27</v>
-      </c>
-      <c r="J66" t="s">
+      <c r="M66" t="s">
+        <v>27</v>
+      </c>
+      <c r="N66" t="s">
         <v>145</v>
       </c>
-      <c r="K66" t="s">
+      <c r="O66" t="s">
         <v>39</v>
       </c>
-      <c r="L66" t="s">
+      <c r="P66" t="s">
         <v>169</v>
       </c>
-      <c r="M66" t="s">
-        <v>31</v>
-      </c>
-      <c r="O66" t="s">
+      <c r="Q66" t="s">
+        <v>31</v>
+      </c>
+      <c r="S66" t="s">
         <v>83</v>
       </c>
-      <c r="P66" t="s">
+      <c r="T66" t="s">
         <v>154</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="U66" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
-      <c r="A67">
+    <row r="67" spans="1:21">
+      <c r="A67" s="1">
+        <v>138000000000000</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C67" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67">
         <v>51</v>
       </c>
-      <c r="B67" t="s">
+      <c r="F67" t="s">
         <v>171</v>
       </c>
-      <c r="C67">
+      <c r="G67">
         <v>9.7200000000000006</v>
       </c>
-      <c r="D67">
+      <c r="H67">
         <v>0.03</v>
       </c>
-      <c r="E67" t="s">
+      <c r="I67" t="s">
         <v>80</v>
       </c>
-      <c r="F67" s="1">
+      <c r="J67" s="1">
         <v>428000000000000</v>
       </c>
-      <c r="G67" s="1">
+      <c r="K67" s="1">
         <v>0.36</v>
       </c>
-      <c r="H67" s="1">
+      <c r="L67" s="1">
         <v>1.01E-2</v>
       </c>
-      <c r="I67" t="s">
-        <v>27</v>
-      </c>
-      <c r="J67" t="s">
+      <c r="M67" t="s">
+        <v>27</v>
+      </c>
+      <c r="N67" t="s">
         <v>149</v>
       </c>
-      <c r="K67" t="s">
+      <c r="O67" t="s">
         <v>39</v>
       </c>
-      <c r="L67" t="s">
+      <c r="P67" t="s">
         <v>172</v>
       </c>
-      <c r="M67" t="s">
-        <v>31</v>
-      </c>
-      <c r="O67" t="s">
+      <c r="Q67" t="s">
+        <v>31</v>
+      </c>
+      <c r="S67" t="s">
         <v>83</v>
       </c>
-      <c r="P67" t="s">
+      <c r="T67" t="s">
         <v>152</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="U67" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
-      <c r="A68">
+    <row r="68" spans="1:21">
+      <c r="A68" s="1">
+        <v>138000000000000</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="C68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68">
         <v>52</v>
       </c>
-      <c r="B68" t="s">
+      <c r="F68" t="s">
         <v>171</v>
       </c>
-      <c r="C68">
+      <c r="G68">
         <v>9.51</v>
       </c>
-      <c r="D68">
+      <c r="H68">
         <v>0.03</v>
       </c>
-      <c r="E68" t="s">
+      <c r="I68" t="s">
         <v>80</v>
       </c>
-      <c r="F68" s="1">
+      <c r="J68" s="1">
         <v>428000000000000</v>
       </c>
-      <c r="G68" s="1">
+      <c r="K68" s="1">
         <v>0.437</v>
       </c>
-      <c r="H68" s="1">
+      <c r="L68" s="1">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="I68" t="s">
-        <v>27</v>
-      </c>
-      <c r="J68" t="s">
+      <c r="M68" t="s">
+        <v>27</v>
+      </c>
+      <c r="N68" t="s">
         <v>149</v>
       </c>
-      <c r="K68" t="s">
+      <c r="O68" t="s">
         <v>39</v>
       </c>
-      <c r="L68" t="s">
+      <c r="P68" t="s">
         <v>172</v>
       </c>
-      <c r="M68" t="s">
-        <v>31</v>
-      </c>
-      <c r="O68" t="s">
+      <c r="Q68" t="s">
+        <v>31</v>
+      </c>
+      <c r="S68" t="s">
         <v>83</v>
       </c>
-      <c r="P68" t="s">
+      <c r="T68" t="s">
         <v>151</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="U68" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
-      <c r="A69">
+    <row r="69" spans="1:21">
+      <c r="A69" s="1">
+        <v>138000000000000</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C69" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69">
         <v>53</v>
       </c>
-      <c r="B69" t="s">
+      <c r="F69" t="s">
         <v>171</v>
       </c>
-      <c r="C69">
+      <c r="G69">
         <v>10.3</v>
       </c>
-      <c r="D69">
+      <c r="H69">
         <v>0.03</v>
       </c>
-      <c r="E69" t="s">
+      <c r="I69" t="s">
         <v>80</v>
       </c>
-      <c r="F69" s="1">
+      <c r="J69" s="1">
         <v>428000000000000</v>
       </c>
-      <c r="G69" s="1">
+      <c r="K69" s="1">
         <v>0.21099999999999999</v>
       </c>
-      <c r="H69" s="1">
+      <c r="L69" s="1">
         <v>5.9100000000000003E-3</v>
       </c>
-      <c r="I69" t="s">
-        <v>27</v>
-      </c>
-      <c r="J69" t="s">
+      <c r="M69" t="s">
+        <v>27</v>
+      </c>
+      <c r="N69" t="s">
         <v>149</v>
       </c>
-      <c r="K69" t="s">
+      <c r="O69" t="s">
         <v>39</v>
       </c>
-      <c r="L69" t="s">
+      <c r="P69" t="s">
         <v>172</v>
       </c>
-      <c r="M69" t="s">
-        <v>31</v>
-      </c>
-      <c r="O69" t="s">
+      <c r="Q69" t="s">
+        <v>31</v>
+      </c>
+      <c r="S69" t="s">
         <v>83</v>
       </c>
-      <c r="P69" t="s">
+      <c r="T69" t="s">
         <v>150</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="U69" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
-      <c r="A70">
+    <row r="70" spans="1:21">
+      <c r="A70" s="1">
+        <v>138000000000000</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C70" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70">
         <v>54</v>
       </c>
-      <c r="B70" t="s">
+      <c r="F70" t="s">
         <v>173</v>
       </c>
-      <c r="C70">
+      <c r="G70">
         <v>0.49</v>
       </c>
-      <c r="E70" t="s">
+      <c r="I70" t="s">
         <v>140</v>
       </c>
-      <c r="F70" s="1">
+      <c r="J70" s="1">
         <v>370000000000000</v>
       </c>
-      <c r="G70" s="1">
+      <c r="K70" s="1">
         <v>0.49</v>
       </c>
-      <c r="I70" t="s">
-        <v>27</v>
-      </c>
-      <c r="J70" t="s">
+      <c r="M70" t="s">
+        <v>27</v>
+      </c>
+      <c r="N70" t="s">
         <v>88</v>
       </c>
-      <c r="K70" t="s">
+      <c r="O70" t="s">
         <v>29</v>
       </c>
-      <c r="L70" t="s">
+      <c r="P70" t="s">
         <v>174</v>
       </c>
-      <c r="M70" t="s">
-        <v>31</v>
-      </c>
-      <c r="N70" t="s">
+      <c r="Q70" t="s">
+        <v>31</v>
+      </c>
+      <c r="R70" t="s">
         <v>90</v>
       </c>
-      <c r="O70" t="s">
+      <c r="S70" t="s">
         <v>79</v>
       </c>
-      <c r="P70" t="s">
+      <c r="T70" t="s">
         <v>34</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="U70" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
-      <c r="A71">
+    <row r="71" spans="1:21">
+      <c r="A71" s="1">
+        <v>136000000000000</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="C71" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71">
         <v>55</v>
       </c>
-      <c r="B71" t="s">
+      <c r="F71" t="s">
         <v>175</v>
       </c>
-      <c r="C71">
+      <c r="G71">
         <v>7.766</v>
       </c>
-      <c r="D71">
+      <c r="H71">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E71" t="s">
+      <c r="I71" t="s">
         <v>80</v>
       </c>
-      <c r="F71" s="1">
+      <c r="J71" s="1">
         <v>240000000000000</v>
       </c>
-      <c r="G71" t="s">
+      <c r="K71" t="s">
         <v>176</v>
       </c>
-      <c r="H71" s="1">
+      <c r="L71" s="1">
         <v>1.9699999999999999E-2</v>
       </c>
-      <c r="I71" t="s">
-        <v>27</v>
-      </c>
-      <c r="J71" t="s">
+      <c r="M71" t="s">
+        <v>27</v>
+      </c>
+      <c r="N71" t="s">
         <v>177</v>
       </c>
-      <c r="K71" t="s">
+      <c r="O71" t="s">
         <v>178</v>
       </c>
-      <c r="L71" t="s">
+      <c r="P71" t="s">
         <v>179</v>
       </c>
-      <c r="M71" t="s">
-        <v>31</v>
-      </c>
-      <c r="N71" t="s">
+      <c r="Q71" t="s">
+        <v>31</v>
+      </c>
+      <c r="R71" t="s">
         <v>180</v>
       </c>
-      <c r="O71" t="s">
+      <c r="S71" t="s">
         <v>79</v>
       </c>
-      <c r="P71" t="s">
+      <c r="T71" t="s">
         <v>34</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="U71" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
-      <c r="A72">
+    <row r="72" spans="1:21">
+      <c r="A72" s="1">
+        <v>136000000000000</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="C72" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72">
         <v>56</v>
       </c>
-      <c r="B72" t="s">
+      <c r="F72" t="s">
         <v>181</v>
       </c>
-      <c r="C72">
+      <c r="G72">
         <v>9.3580000000000005</v>
       </c>
-      <c r="D72">
+      <c r="H72">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E72" t="s">
+      <c r="I72" t="s">
         <v>80</v>
       </c>
-      <c r="F72" s="1">
+      <c r="J72" s="1">
         <v>240000000000000</v>
       </c>
-      <c r="G72" s="1">
+      <c r="K72" s="1">
         <v>0.28799999999999998</v>
       </c>
-      <c r="H72" s="1">
+      <c r="L72" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I72" t="s">
-        <v>27</v>
-      </c>
-      <c r="J72" t="s">
+      <c r="M72" t="s">
+        <v>27</v>
+      </c>
+      <c r="N72" t="s">
         <v>182</v>
       </c>
-      <c r="K72" t="s">
+      <c r="O72" t="s">
         <v>178</v>
       </c>
-      <c r="L72" t="s">
+      <c r="P72" t="s">
         <v>179</v>
       </c>
-      <c r="M72" t="s">
-        <v>31</v>
-      </c>
-      <c r="N72" t="s">
+      <c r="Q72" t="s">
+        <v>31</v>
+      </c>
+      <c r="R72" t="s">
         <v>180</v>
       </c>
-      <c r="O72" t="s">
+      <c r="S72" t="s">
         <v>83</v>
       </c>
-      <c r="P72" t="s">
+      <c r="T72" t="s">
         <v>183</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="U72" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
-      <c r="A73">
+    <row r="73" spans="1:21">
+      <c r="A73" s="1">
+        <v>136000000000000</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.156</v>
+      </c>
+      <c r="C73" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73">
         <v>57</v>
       </c>
-      <c r="B73" t="s">
+      <c r="F73" t="s">
         <v>184</v>
       </c>
-      <c r="C73">
+      <c r="G73">
         <v>7.8890000000000002</v>
       </c>
-      <c r="D73">
+      <c r="H73">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E73" t="s">
+      <c r="I73" t="s">
         <v>80</v>
       </c>
-      <c r="F73" s="1">
+      <c r="J73" s="1">
         <v>240000000000000</v>
       </c>
-      <c r="G73" t="s">
+      <c r="K73" t="s">
         <v>185</v>
       </c>
-      <c r="H73" s="1">
+      <c r="L73" s="1">
         <v>1.55E-2</v>
       </c>
-      <c r="I73" t="s">
-        <v>27</v>
-      </c>
-      <c r="J73" t="s">
+      <c r="M73" t="s">
+        <v>27</v>
+      </c>
+      <c r="N73" t="s">
         <v>177</v>
       </c>
-      <c r="K73" t="s">
+      <c r="O73" t="s">
         <v>178</v>
       </c>
-      <c r="L73" t="s">
+      <c r="P73" t="s">
         <v>179</v>
       </c>
-      <c r="M73" t="s">
-        <v>31</v>
-      </c>
-      <c r="N73" t="s">
+      <c r="Q73" t="s">
+        <v>31</v>
+      </c>
+      <c r="R73" t="s">
         <v>180</v>
       </c>
-      <c r="O73" t="s">
+      <c r="S73" t="s">
         <v>33</v>
       </c>
-      <c r="P73" t="s">
+      <c r="T73" t="s">
         <v>186</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="U73" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
-      <c r="A74">
+    <row r="74" spans="1:21">
+      <c r="A74" s="1">
+        <v>84400000000000</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>27</v>
+      </c>
+      <c r="E74">
         <v>58</v>
       </c>
-      <c r="B74" t="s">
+      <c r="F74" t="s">
         <v>188</v>
       </c>
-      <c r="C74">
+      <c r="G74">
         <v>7.8529999999999998</v>
       </c>
-      <c r="D74">
+      <c r="H74">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E74" t="s">
+      <c r="I74" t="s">
         <v>80</v>
       </c>
-      <c r="F74" s="1">
+      <c r="J74" s="1">
         <v>240000000000000</v>
       </c>
-      <c r="G74" t="s">
+      <c r="K74" t="s">
         <v>189</v>
       </c>
-      <c r="H74" s="1">
+      <c r="L74" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="I74" t="s">
-        <v>27</v>
-      </c>
-      <c r="J74" t="s">
+      <c r="M74" t="s">
+        <v>27</v>
+      </c>
+      <c r="N74" t="s">
         <v>177</v>
       </c>
-      <c r="K74" t="s">
+      <c r="O74" t="s">
         <v>178</v>
       </c>
-      <c r="L74" t="s">
+      <c r="P74" t="s">
         <v>179</v>
       </c>
-      <c r="M74" t="s">
-        <v>31</v>
-      </c>
-      <c r="N74" t="s">
+      <c r="Q74" t="s">
+        <v>31</v>
+      </c>
+      <c r="R74" t="s">
         <v>180</v>
       </c>
-      <c r="O74" t="s">
+      <c r="S74" t="s">
         <v>33</v>
       </c>
-      <c r="P74" t="s">
+      <c r="T74" t="s">
         <v>190</v>
       </c>
-      <c r="Q74" t="s">
+      <c r="U74" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
-      <c r="A75">
+    <row r="75" spans="1:21">
+      <c r="A75" s="1">
+        <v>84400000000000</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="C75" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75">
         <v>59</v>
       </c>
-      <c r="B75" t="s">
+      <c r="F75" t="s">
         <v>191</v>
       </c>
-      <c r="C75">
+      <c r="G75">
         <v>8.2200000000000006</v>
       </c>
-      <c r="D75">
+      <c r="H75">
         <v>0.03</v>
       </c>
-      <c r="E75" t="s">
+      <c r="I75" t="s">
         <v>80</v>
       </c>
-      <c r="F75" s="1">
+      <c r="J75" s="1">
         <v>240000000000000</v>
       </c>
-      <c r="G75" s="1">
+      <c r="K75" s="1">
         <v>0.78300000000000003</v>
       </c>
-      <c r="H75" s="1">
+      <c r="L75" s="1">
         <v>2.1899999999999999E-2</v>
       </c>
-      <c r="I75" t="s">
-        <v>27</v>
-      </c>
-      <c r="J75" t="s">
+      <c r="M75" t="s">
+        <v>27</v>
+      </c>
+      <c r="N75" t="s">
         <v>149</v>
       </c>
-      <c r="K75" t="s">
+      <c r="O75" t="s">
         <v>39</v>
       </c>
-      <c r="L75" t="s">
+      <c r="P75" t="s">
         <v>192</v>
       </c>
-      <c r="M75" t="s">
-        <v>31</v>
-      </c>
-      <c r="O75" t="s">
+      <c r="Q75" t="s">
+        <v>31</v>
+      </c>
+      <c r="S75" t="s">
         <v>83</v>
       </c>
-      <c r="P75" t="s">
+      <c r="T75" t="s">
         <v>193</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="U75" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
-      <c r="A76">
+    <row r="76" spans="1:21">
+      <c r="A76" s="1">
+        <v>84400000000000</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="C76" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76">
         <v>60</v>
       </c>
-      <c r="B76" t="s">
+      <c r="F76" t="s">
         <v>191</v>
       </c>
-      <c r="C76">
+      <c r="G76">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D76">
+      <c r="H76">
         <v>0.03</v>
       </c>
-      <c r="E76" t="s">
+      <c r="I76" t="s">
         <v>80</v>
       </c>
-      <c r="F76" s="1">
+      <c r="J76" s="1">
         <v>240000000000000</v>
       </c>
-      <c r="G76" s="1">
+      <c r="K76" s="1">
         <v>0.503</v>
       </c>
-      <c r="H76" s="1">
+      <c r="L76" s="1">
         <v>1.41E-2</v>
       </c>
-      <c r="I76" t="s">
-        <v>27</v>
-      </c>
-      <c r="J76" t="s">
+      <c r="M76" t="s">
+        <v>27</v>
+      </c>
+      <c r="N76" t="s">
         <v>149</v>
       </c>
-      <c r="K76" t="s">
+      <c r="O76" t="s">
         <v>39</v>
       </c>
-      <c r="L76" t="s">
+      <c r="P76" t="s">
         <v>192</v>
       </c>
-      <c r="M76" t="s">
-        <v>31</v>
-      </c>
-      <c r="O76" t="s">
+      <c r="Q76" t="s">
+        <v>31</v>
+      </c>
+      <c r="S76" t="s">
         <v>83</v>
       </c>
-      <c r="P76" t="s">
+      <c r="T76" t="s">
         <v>194</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="U76" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
-      <c r="A77">
+    <row r="77" spans="1:21">
+      <c r="A77" s="1">
+        <v>66700000000000</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="C77" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77">
         <v>61</v>
       </c>
-      <c r="B77" t="s">
+      <c r="F77" t="s">
         <v>191</v>
       </c>
-      <c r="C77">
+      <c r="G77">
         <v>9.89</v>
       </c>
-      <c r="D77">
+      <c r="H77">
         <v>0.05</v>
       </c>
-      <c r="E77" t="s">
+      <c r="I77" t="s">
         <v>80</v>
       </c>
-      <c r="F77" s="1">
+      <c r="J77" s="1">
         <v>240000000000000</v>
       </c>
-      <c r="G77" s="1">
+      <c r="K77" s="1">
         <v>0.16800000000000001</v>
       </c>
-      <c r="H77" s="1">
+      <c r="L77" s="1">
         <v>7.9299999999999995E-3</v>
       </c>
-      <c r="I77" t="s">
-        <v>27</v>
-      </c>
-      <c r="J77" t="s">
+      <c r="M77" t="s">
+        <v>27</v>
+      </c>
+      <c r="N77" t="s">
         <v>195</v>
       </c>
-      <c r="K77" t="s">
+      <c r="O77" t="s">
         <v>39</v>
       </c>
-      <c r="L77" t="s">
+      <c r="P77" t="s">
         <v>192</v>
       </c>
-      <c r="M77" t="s">
-        <v>31</v>
-      </c>
-      <c r="O77" t="s">
+      <c r="Q77" t="s">
+        <v>31</v>
+      </c>
+      <c r="S77" t="s">
         <v>83</v>
       </c>
-      <c r="P77" t="s">
+      <c r="T77" t="s">
         <v>196</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="U77" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
-      <c r="A78">
+    <row r="78" spans="1:21">
+      <c r="A78" s="1">
+        <v>66700000000000</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="C78" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78">
         <v>62</v>
       </c>
-      <c r="B78" t="s">
+      <c r="F78" t="s">
         <v>197</v>
       </c>
-      <c r="C78">
+      <c r="G78">
         <v>8.6440000000000001</v>
       </c>
-      <c r="D78">
+      <c r="H78">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E78" t="s">
+      <c r="I78" t="s">
         <v>80</v>
       </c>
-      <c r="F78" s="1">
+      <c r="J78" s="1">
         <v>182000000000000</v>
       </c>
-      <c r="G78" s="1">
+      <c r="K78" s="1">
         <v>0.35699999999999998</v>
       </c>
-      <c r="H78" s="1">
+      <c r="L78" s="1">
         <v>4.9699999999999996E-3</v>
       </c>
-      <c r="I78" t="s">
-        <v>27</v>
-      </c>
-      <c r="J78" t="s">
+      <c r="M78" t="s">
+        <v>27</v>
+      </c>
+      <c r="N78" t="s">
         <v>182</v>
       </c>
-      <c r="K78" t="s">
+      <c r="O78" t="s">
         <v>178</v>
       </c>
-      <c r="L78" t="s">
+      <c r="P78" t="s">
         <v>198</v>
       </c>
-      <c r="M78" t="s">
-        <v>31</v>
-      </c>
-      <c r="N78" t="s">
+      <c r="Q78" t="s">
+        <v>31</v>
+      </c>
+      <c r="R78" t="s">
         <v>180</v>
       </c>
-      <c r="O78" t="s">
+      <c r="S78" t="s">
         <v>83</v>
       </c>
-      <c r="P78" t="s">
+      <c r="T78" t="s">
         <v>183</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="U78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
-      <c r="A79">
+    <row r="79" spans="1:21">
+      <c r="A79" s="1">
+        <v>66700000000000</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="C79" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79">
         <v>63</v>
       </c>
-      <c r="B79" t="s">
+      <c r="F79" t="s">
         <v>199</v>
       </c>
-      <c r="C79">
+      <c r="G79">
         <v>7.1970000000000001</v>
       </c>
-      <c r="D79">
+      <c r="H79">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E79" t="s">
+      <c r="I79" t="s">
         <v>80</v>
       </c>
-      <c r="F79" s="1">
+      <c r="J79" s="1">
         <v>182000000000000</v>
       </c>
-      <c r="G79" t="s">
+      <c r="K79" t="s">
         <v>200</v>
       </c>
-      <c r="H79" s="1">
+      <c r="L79" s="1">
         <v>1.8800000000000001E-2</v>
       </c>
-      <c r="I79" t="s">
-        <v>27</v>
-      </c>
-      <c r="J79" t="s">
+      <c r="M79" t="s">
+        <v>27</v>
+      </c>
+      <c r="N79" t="s">
         <v>177</v>
       </c>
-      <c r="K79" t="s">
+      <c r="O79" t="s">
         <v>178</v>
       </c>
-      <c r="L79" t="s">
+      <c r="P79" t="s">
         <v>198</v>
       </c>
-      <c r="M79" t="s">
-        <v>31</v>
-      </c>
-      <c r="N79" t="s">
+      <c r="Q79" t="s">
+        <v>31</v>
+      </c>
+      <c r="R79" t="s">
         <v>180</v>
       </c>
-      <c r="O79" t="s">
+      <c r="S79" t="s">
         <v>33</v>
       </c>
-      <c r="P79" t="s">
+      <c r="T79" t="s">
         <v>186</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="U79" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
-      <c r="A80">
+    <row r="80" spans="1:21">
+      <c r="A80" s="1">
+        <v>52300000000000</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="C80" t="s">
+        <v>27</v>
+      </c>
+      <c r="E80">
         <v>64</v>
       </c>
-      <c r="B80" t="s">
+      <c r="F80" t="s">
         <v>201</v>
       </c>
-      <c r="C80">
+      <c r="G80">
         <v>7.0860000000000003</v>
       </c>
-      <c r="D80">
+      <c r="H80">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E80" t="s">
+      <c r="I80" t="s">
         <v>80</v>
       </c>
-      <c r="F80" s="1">
+      <c r="J80" s="1">
         <v>182000000000000</v>
       </c>
-      <c r="G80" t="s">
+      <c r="K80" t="s">
         <v>202</v>
       </c>
-      <c r="H80" s="1">
+      <c r="L80" s="1">
         <v>2.5100000000000001E-2</v>
       </c>
-      <c r="I80" t="s">
-        <v>27</v>
-      </c>
-      <c r="J80" t="s">
+      <c r="M80" t="s">
+        <v>27</v>
+      </c>
+      <c r="N80" t="s">
         <v>177</v>
       </c>
-      <c r="K80" t="s">
+      <c r="O80" t="s">
         <v>178</v>
       </c>
-      <c r="L80" t="s">
+      <c r="P80" t="s">
         <v>198</v>
       </c>
-      <c r="M80" t="s">
-        <v>31</v>
-      </c>
-      <c r="N80" t="s">
+      <c r="Q80" t="s">
+        <v>31</v>
+      </c>
+      <c r="R80" t="s">
         <v>180</v>
       </c>
-      <c r="O80" t="s">
+      <c r="S80" t="s">
         <v>79</v>
       </c>
-      <c r="P80" t="s">
+      <c r="T80" t="s">
         <v>34</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="U80" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
-      <c r="A81">
+    <row r="81" spans="1:21">
+      <c r="A81" s="1">
+        <v>52300000000000</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="C81" t="s">
+        <v>27</v>
+      </c>
+      <c r="E81">
         <v>65</v>
       </c>
-      <c r="B81" t="s">
+      <c r="F81" t="s">
         <v>203</v>
       </c>
-      <c r="C81">
+      <c r="G81">
         <v>7.1639999999999997</v>
       </c>
-      <c r="D81">
+      <c r="H81">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E81" t="s">
+      <c r="I81" t="s">
         <v>80</v>
       </c>
-      <c r="F81" s="1">
+      <c r="J81" s="1">
         <v>182000000000000</v>
       </c>
-      <c r="G81" t="s">
+      <c r="K81" t="s">
         <v>204</v>
       </c>
-      <c r="H81" s="1">
+      <c r="L81" s="1">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="I81" t="s">
-        <v>27</v>
-      </c>
-      <c r="J81" t="s">
+      <c r="M81" t="s">
+        <v>27</v>
+      </c>
+      <c r="N81" t="s">
         <v>177</v>
       </c>
-      <c r="K81" t="s">
+      <c r="O81" t="s">
         <v>178</v>
       </c>
-      <c r="L81" t="s">
+      <c r="P81" t="s">
         <v>198</v>
       </c>
-      <c r="M81" t="s">
-        <v>31</v>
-      </c>
-      <c r="N81" t="s">
+      <c r="Q81" t="s">
+        <v>31</v>
+      </c>
+      <c r="R81" t="s">
         <v>180</v>
       </c>
-      <c r="O81" t="s">
+      <c r="S81" t="s">
         <v>33</v>
       </c>
-      <c r="P81" t="s">
+      <c r="T81" t="s">
         <v>190</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="U81" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
-      <c r="A82">
+    <row r="82" spans="1:21">
+      <c r="A82" s="1">
+        <v>52300000000000</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="C82" t="s">
+        <v>27</v>
+      </c>
+      <c r="E82">
         <v>66</v>
       </c>
-      <c r="B82" t="s">
+      <c r="F82" t="s">
         <v>205</v>
       </c>
-      <c r="C82">
+      <c r="G82">
         <v>7.55</v>
       </c>
-      <c r="D82">
+      <c r="H82">
         <v>0.03</v>
       </c>
-      <c r="E82" t="s">
+      <c r="I82" t="s">
         <v>80</v>
       </c>
-      <c r="F82" s="1">
+      <c r="J82" s="1">
         <v>182000000000000</v>
       </c>
-      <c r="G82" s="1">
+      <c r="K82" s="1">
         <v>0.93600000000000005</v>
       </c>
-      <c r="H82" s="1">
+      <c r="L82" s="1">
         <v>2.6200000000000001E-2</v>
       </c>
-      <c r="I82" t="s">
-        <v>27</v>
-      </c>
-      <c r="J82" t="s">
+      <c r="M82" t="s">
+        <v>27</v>
+      </c>
+      <c r="N82" t="s">
         <v>149</v>
       </c>
-      <c r="K82" t="s">
+      <c r="O82" t="s">
         <v>39</v>
       </c>
-      <c r="L82" t="s">
+      <c r="P82" t="s">
         <v>206</v>
       </c>
-      <c r="M82" t="s">
-        <v>31</v>
-      </c>
-      <c r="O82" t="s">
+      <c r="Q82" t="s">
+        <v>31</v>
+      </c>
+      <c r="S82" t="s">
         <v>83</v>
       </c>
-      <c r="P82" t="s">
+      <c r="T82" t="s">
         <v>193</v>
       </c>
-      <c r="Q82" t="s">
+      <c r="U82" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
-      <c r="A83">
+    <row r="83" spans="1:21">
+      <c r="A83" s="1">
+        <v>51500000000000</v>
+      </c>
+      <c r="B83" s="1">
+        <v>4.36E-2</v>
+      </c>
+      <c r="C83" t="s">
+        <v>27</v>
+      </c>
+      <c r="E83">
         <v>67</v>
       </c>
-      <c r="B83" t="s">
+      <c r="F83" t="s">
         <v>205</v>
       </c>
-      <c r="C83">
+      <c r="G83">
         <v>8.02</v>
       </c>
-      <c r="D83">
+      <c r="H83">
         <v>0.03</v>
       </c>
-      <c r="E83" t="s">
+      <c r="I83" t="s">
         <v>80</v>
       </c>
-      <c r="F83" s="1">
+      <c r="J83" s="1">
         <v>182000000000000</v>
       </c>
-      <c r="G83" s="1">
+      <c r="K83" s="1">
         <v>0.60699999999999998</v>
       </c>
-      <c r="H83" s="1">
+      <c r="L83" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="I83" t="s">
-        <v>27</v>
-      </c>
-      <c r="J83" t="s">
+      <c r="M83" t="s">
+        <v>27</v>
+      </c>
+      <c r="N83" t="s">
         <v>149</v>
       </c>
-      <c r="K83" t="s">
+      <c r="O83" t="s">
         <v>39</v>
       </c>
-      <c r="L83" t="s">
+      <c r="P83" t="s">
         <v>206</v>
       </c>
-      <c r="M83" t="s">
-        <v>31</v>
-      </c>
-      <c r="O83" t="s">
+      <c r="Q83" t="s">
+        <v>31</v>
+      </c>
+      <c r="S83" t="s">
         <v>83</v>
       </c>
-      <c r="P83" t="s">
+      <c r="T83" t="s">
         <v>194</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="U83" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
-      <c r="A84">
+    <row r="84" spans="1:21">
+      <c r="A84" s="1">
+        <v>38100000000000</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="C84" t="s">
+        <v>27</v>
+      </c>
+      <c r="E84">
         <v>68</v>
       </c>
-      <c r="B84" t="s">
+      <c r="F84" t="s">
         <v>205</v>
       </c>
-      <c r="C84">
+      <c r="G84">
         <v>9.23</v>
       </c>
-      <c r="D84">
+      <c r="H84">
         <v>0.06</v>
       </c>
-      <c r="E84" t="s">
+      <c r="I84" t="s">
         <v>80</v>
       </c>
-      <c r="F84" s="1">
+      <c r="J84" s="1">
         <v>182000000000000</v>
       </c>
-      <c r="G84" s="1">
+      <c r="K84" s="1">
         <v>0.19900000000000001</v>
       </c>
-      <c r="H84" s="1">
+      <c r="L84" s="1">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="I84" t="s">
-        <v>27</v>
-      </c>
-      <c r="J84" t="s">
+      <c r="M84" t="s">
+        <v>27</v>
+      </c>
+      <c r="N84" t="s">
         <v>195</v>
       </c>
-      <c r="K84" t="s">
+      <c r="O84" t="s">
         <v>39</v>
       </c>
-      <c r="L84" t="s">
+      <c r="P84" t="s">
         <v>206</v>
       </c>
-      <c r="M84" t="s">
-        <v>31</v>
-      </c>
-      <c r="O84" t="s">
+      <c r="Q84" t="s">
+        <v>31</v>
+      </c>
+      <c r="S84" t="s">
         <v>83</v>
       </c>
-      <c r="P84" t="s">
+      <c r="T84" t="s">
         <v>196</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="U84" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
-      <c r="A85">
+    <row r="85" spans="1:21">
+      <c r="A85" s="1">
+        <v>38100000000000</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="C85" t="s">
+        <v>27</v>
+      </c>
+      <c r="E85">
         <v>69</v>
       </c>
-      <c r="B85" t="s">
+      <c r="F85" t="s">
         <v>207</v>
       </c>
-      <c r="C85">
+      <c r="G85">
         <v>6.9050000000000002</v>
       </c>
-      <c r="D85">
+      <c r="H85">
         <v>1.6E-2</v>
       </c>
-      <c r="E85" t="s">
+      <c r="I85" t="s">
         <v>80</v>
       </c>
-      <c r="F85" s="1">
+      <c r="J85" s="1">
         <v>138000000000000</v>
       </c>
-      <c r="G85" t="s">
+      <c r="K85" t="s">
         <v>189</v>
       </c>
-      <c r="H85" s="1">
+      <c r="L85" s="1">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="I85" t="s">
-        <v>27</v>
-      </c>
-      <c r="J85" t="s">
+      <c r="M85" t="s">
+        <v>27</v>
+      </c>
+      <c r="N85" t="s">
         <v>177</v>
       </c>
-      <c r="K85" t="s">
+      <c r="O85" t="s">
         <v>178</v>
       </c>
-      <c r="L85" t="s">
+      <c r="P85" t="s">
         <v>208</v>
       </c>
-      <c r="M85" t="s">
-        <v>31</v>
-      </c>
-      <c r="N85" t="s">
+      <c r="Q85" t="s">
+        <v>31</v>
+      </c>
+      <c r="R85" t="s">
         <v>180</v>
       </c>
-      <c r="O85" t="s">
+      <c r="S85" t="s">
         <v>33</v>
       </c>
-      <c r="P85" t="s">
+      <c r="T85" t="s">
         <v>190</v>
       </c>
-      <c r="Q85" t="s">
+      <c r="U85" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
-      <c r="A86">
+    <row r="86" spans="1:21">
+      <c r="A86" s="1">
+        <v>38100000000000</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="C86" t="s">
+        <v>27</v>
+      </c>
+      <c r="E86">
         <v>70</v>
       </c>
-      <c r="B86" t="s">
+      <c r="F86" t="s">
         <v>209</v>
       </c>
-      <c r="C86">
+      <c r="G86">
         <v>8.3800000000000008</v>
       </c>
-      <c r="D86">
+      <c r="H86">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E86" t="s">
+      <c r="I86" t="s">
         <v>80</v>
       </c>
-      <c r="F86" s="1">
+      <c r="J86" s="1">
         <v>138000000000000</v>
       </c>
-      <c r="G86" s="1">
+      <c r="K86" s="1">
         <v>0.29599999999999999</v>
       </c>
-      <c r="H86" s="1">
+      <c r="L86" s="1">
         <v>4.1200000000000004E-3</v>
       </c>
-      <c r="I86" t="s">
-        <v>27</v>
-      </c>
-      <c r="J86" t="s">
+      <c r="M86" t="s">
+        <v>27</v>
+      </c>
+      <c r="N86" t="s">
         <v>182</v>
       </c>
-      <c r="K86" t="s">
+      <c r="O86" t="s">
         <v>178</v>
       </c>
-      <c r="L86" t="s">
+      <c r="P86" t="s">
         <v>208</v>
       </c>
-      <c r="M86" t="s">
-        <v>31</v>
-      </c>
-      <c r="N86" t="s">
+      <c r="Q86" t="s">
+        <v>31</v>
+      </c>
+      <c r="R86" t="s">
         <v>180</v>
       </c>
-      <c r="O86" t="s">
+      <c r="S86" t="s">
         <v>83</v>
       </c>
-      <c r="P86" t="s">
+      <c r="T86" t="s">
         <v>183</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="U86" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
-      <c r="A87">
+    <row r="87" spans="1:21">
+      <c r="A87" s="1">
+        <v>36100000000000</v>
+      </c>
+      <c r="B87" s="1">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="C87" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87">
         <v>71</v>
       </c>
-      <c r="B87" t="s">
+      <c r="F87" t="s">
         <v>210</v>
       </c>
-      <c r="C87">
+      <c r="G87">
         <v>6.82</v>
       </c>
-      <c r="D87">
+      <c r="H87">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="E87" t="s">
+      <c r="I87" t="s">
         <v>80</v>
       </c>
-      <c r="F87" s="1">
+      <c r="J87" s="1">
         <v>138000000000000</v>
       </c>
-      <c r="G87" t="s">
+      <c r="K87" t="s">
         <v>176</v>
       </c>
-      <c r="H87" s="1">
+      <c r="L87" s="1">
         <v>2.4400000000000002E-2</v>
       </c>
-      <c r="I87" t="s">
-        <v>27</v>
-      </c>
-      <c r="J87" t="s">
+      <c r="M87" t="s">
+        <v>27</v>
+      </c>
+      <c r="N87" t="s">
         <v>177</v>
       </c>
-      <c r="K87" t="s">
+      <c r="O87" t="s">
         <v>178</v>
       </c>
-      <c r="L87" t="s">
+      <c r="P87" t="s">
         <v>208</v>
       </c>
-      <c r="M87" t="s">
-        <v>31</v>
-      </c>
-      <c r="N87" t="s">
+      <c r="Q87" t="s">
+        <v>31</v>
+      </c>
+      <c r="R87" t="s">
         <v>180</v>
       </c>
-      <c r="O87" t="s">
+      <c r="S87" t="s">
         <v>79</v>
       </c>
-      <c r="P87" t="s">
+      <c r="T87" t="s">
         <v>34</v>
       </c>
-      <c r="Q87" t="s">
+      <c r="U87" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
-      <c r="A88">
+    <row r="88" spans="1:21">
+      <c r="A88" s="1">
+        <v>30200000000000</v>
+      </c>
+      <c r="B88" s="1">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88">
         <v>72</v>
       </c>
-      <c r="B88" t="s">
+      <c r="F88" t="s">
         <v>211</v>
       </c>
-      <c r="C88">
+      <c r="G88">
         <v>6.9409999999999998</v>
       </c>
-      <c r="D88">
+      <c r="H88">
         <v>1.6E-2</v>
       </c>
-      <c r="E88" t="s">
+      <c r="I88" t="s">
         <v>80</v>
       </c>
-      <c r="F88" s="1">
+      <c r="J88" s="1">
         <v>138000000000000</v>
       </c>
-      <c r="G88" t="s">
+      <c r="K88" t="s">
         <v>212</v>
       </c>
-      <c r="H88" s="1">
+      <c r="L88" s="1">
         <v>1.66E-2</v>
       </c>
-      <c r="I88" t="s">
-        <v>27</v>
-      </c>
-      <c r="J88" t="s">
+      <c r="M88" t="s">
+        <v>27</v>
+      </c>
+      <c r="N88" t="s">
         <v>177</v>
       </c>
-      <c r="K88" t="s">
+      <c r="O88" t="s">
         <v>178</v>
       </c>
-      <c r="L88" t="s">
+      <c r="P88" t="s">
         <v>208</v>
       </c>
-      <c r="M88" t="s">
-        <v>31</v>
-      </c>
-      <c r="N88" t="s">
+      <c r="Q88" t="s">
+        <v>31</v>
+      </c>
+      <c r="R88" t="s">
         <v>180</v>
       </c>
-      <c r="O88" t="s">
+      <c r="S88" t="s">
         <v>33</v>
       </c>
-      <c r="P88" t="s">
+      <c r="T88" t="s">
         <v>186</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="U88" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
-      <c r="A89">
+    <row r="89" spans="1:21">
+      <c r="A89" s="1">
+        <v>25000000000000</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89">
         <v>73</v>
       </c>
-      <c r="B89" t="s">
+      <c r="F89" t="s">
         <v>213</v>
       </c>
-      <c r="C89">
+      <c r="G89">
         <v>7.32</v>
       </c>
-      <c r="D89">
+      <c r="H89">
         <v>0.02</v>
       </c>
-      <c r="E89" t="s">
+      <c r="I89" t="s">
         <v>80</v>
       </c>
-      <c r="F89" s="1">
+      <c r="J89" s="1">
         <v>136000000000000</v>
       </c>
-      <c r="G89" s="1">
+      <c r="K89" s="1">
         <v>0.73199999999999998</v>
       </c>
-      <c r="H89" s="1">
+      <c r="L89" s="1">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="I89" t="s">
-        <v>27</v>
-      </c>
-      <c r="J89" t="s">
+      <c r="M89" t="s">
+        <v>27</v>
+      </c>
+      <c r="N89" t="s">
         <v>149</v>
       </c>
-      <c r="K89" t="s">
+      <c r="O89" t="s">
         <v>39</v>
       </c>
-      <c r="L89" t="s">
+      <c r="P89" t="s">
         <v>214</v>
       </c>
-      <c r="M89" t="s">
-        <v>31</v>
-      </c>
-      <c r="O89" t="s">
+      <c r="Q89" t="s">
+        <v>31</v>
+      </c>
+      <c r="S89" t="s">
         <v>83</v>
       </c>
-      <c r="P89" t="s">
+      <c r="T89" t="s">
         <v>193</v>
       </c>
-      <c r="Q89" t="s">
+      <c r="U89" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
-      <c r="A90">
+    <row r="90" spans="1:21">
+      <c r="A90" s="1">
+        <v>23100000000000</v>
+      </c>
+      <c r="B90" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C90" t="s">
+        <v>27</v>
+      </c>
+      <c r="E90">
         <v>74</v>
       </c>
-      <c r="B90" t="s">
+      <c r="F90" t="s">
         <v>213</v>
       </c>
-      <c r="C90">
+      <c r="G90">
         <v>7.83</v>
       </c>
-      <c r="D90">
+      <c r="H90">
         <v>0.02</v>
       </c>
-      <c r="E90" t="s">
+      <c r="I90" t="s">
         <v>80</v>
       </c>
-      <c r="F90" s="1">
+      <c r="J90" s="1">
         <v>136000000000000</v>
       </c>
-      <c r="G90" s="1">
+      <c r="K90" s="1">
         <v>0.45800000000000002</v>
       </c>
-      <c r="H90" s="1">
+      <c r="L90" s="1">
         <v>8.5100000000000002E-3</v>
       </c>
-      <c r="I90" t="s">
-        <v>27</v>
-      </c>
-      <c r="J90" t="s">
+      <c r="M90" t="s">
+        <v>27</v>
+      </c>
+      <c r="N90" t="s">
         <v>149</v>
       </c>
-      <c r="K90" t="s">
+      <c r="O90" t="s">
         <v>39</v>
       </c>
-      <c r="L90" t="s">
+      <c r="P90" t="s">
         <v>214</v>
       </c>
-      <c r="M90" t="s">
-        <v>31</v>
-      </c>
-      <c r="O90" t="s">
+      <c r="Q90" t="s">
+        <v>31</v>
+      </c>
+      <c r="S90" t="s">
         <v>83</v>
       </c>
-      <c r="P90" t="s">
+      <c r="T90" t="s">
         <v>194</v>
       </c>
-      <c r="Q90" t="s">
+      <c r="U90" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
-      <c r="A91">
+    <row r="91" spans="1:21">
+      <c r="A91" s="1">
+        <v>12700000000000</v>
+      </c>
+      <c r="B91" s="1">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="C91" t="s">
+        <v>27</v>
+      </c>
+      <c r="E91">
         <v>75</v>
       </c>
-      <c r="B91" t="s">
+      <c r="F91" t="s">
         <v>213</v>
       </c>
-      <c r="C91">
+      <c r="G91">
         <v>9</v>
       </c>
-      <c r="D91">
+      <c r="H91">
         <v>0.1</v>
       </c>
-      <c r="E91" t="s">
+      <c r="I91" t="s">
         <v>80</v>
       </c>
-      <c r="F91" s="1">
+      <c r="J91" s="1">
         <v>136000000000000</v>
       </c>
-      <c r="G91" s="1">
+      <c r="K91" s="1">
         <v>0.156</v>
       </c>
-      <c r="H91" s="1">
+      <c r="L91" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I91" t="s">
-        <v>27</v>
-      </c>
-      <c r="J91" t="s">
+      <c r="M91" t="s">
+        <v>27</v>
+      </c>
+      <c r="N91" t="s">
         <v>195</v>
       </c>
-      <c r="K91" t="s">
+      <c r="O91" t="s">
         <v>39</v>
       </c>
-      <c r="L91" t="s">
+      <c r="P91" t="s">
         <v>214</v>
       </c>
-      <c r="M91" t="s">
-        <v>31</v>
-      </c>
-      <c r="O91" t="s">
+      <c r="Q91" t="s">
+        <v>31</v>
+      </c>
+      <c r="S91" t="s">
         <v>83</v>
       </c>
-      <c r="P91" t="s">
+      <c r="T91" t="s">
         <v>196</v>
       </c>
-      <c r="Q91" t="s">
+      <c r="U91" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
-      <c r="A92">
+    <row r="92" spans="1:21">
+      <c r="A92" s="1">
+        <v>12700000000000</v>
+      </c>
+      <c r="B92" s="1">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>27</v>
+      </c>
+      <c r="E92">
         <v>76</v>
       </c>
-      <c r="B92" t="s">
+      <c r="F92" t="s">
         <v>215</v>
       </c>
-      <c r="C92">
+      <c r="G92">
         <v>0.8</v>
       </c>
-      <c r="D92">
+      <c r="H92">
         <v>0.08</v>
       </c>
-      <c r="E92" t="s">
+      <c r="I92" t="s">
         <v>140</v>
       </c>
-      <c r="F92" s="1">
+      <c r="J92" s="1">
         <v>84400000000000</v>
       </c>
-      <c r="G92" s="1">
+      <c r="K92" s="1">
         <v>0.8</v>
       </c>
-      <c r="H92" s="1">
+      <c r="L92" s="1">
         <v>0.08</v>
       </c>
-      <c r="I92" t="s">
-        <v>27</v>
-      </c>
-      <c r="J92" t="s">
+      <c r="M92" t="s">
+        <v>27</v>
+      </c>
+      <c r="N92" t="s">
         <v>216</v>
       </c>
-      <c r="K92" t="s">
+      <c r="O92" t="s">
         <v>39</v>
       </c>
-      <c r="L92" t="s">
+      <c r="P92" t="s">
         <v>217</v>
       </c>
-      <c r="M92" t="s">
-        <v>31</v>
-      </c>
-      <c r="O92" t="s">
+      <c r="Q92" t="s">
+        <v>31</v>
+      </c>
+      <c r="S92" t="s">
         <v>83</v>
       </c>
-      <c r="P92" t="s">
+      <c r="T92" t="s">
         <v>218</v>
       </c>
-      <c r="Q92" t="s">
+      <c r="U92" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
-      <c r="A93">
+    <row r="93" spans="1:21">
+      <c r="A93" s="1">
+        <v>12700000000000</v>
+      </c>
+      <c r="B93" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>27</v>
+      </c>
+      <c r="E93">
         <v>77</v>
       </c>
-      <c r="B93" t="s">
+      <c r="F93" t="s">
         <v>215</v>
       </c>
-      <c r="C93">
+      <c r="G93">
         <v>0.73</v>
       </c>
-      <c r="D93">
+      <c r="H93">
         <v>0.1</v>
       </c>
-      <c r="E93" t="s">
+      <c r="I93" t="s">
         <v>140</v>
       </c>
-      <c r="F93" s="1">
+      <c r="J93" s="1">
         <v>84400000000000</v>
       </c>
-      <c r="G93" s="1">
+      <c r="K93" s="1">
         <v>0.73</v>
       </c>
-      <c r="H93" s="1">
+      <c r="L93" s="1">
         <v>0.1</v>
       </c>
-      <c r="I93" t="s">
-        <v>27</v>
-      </c>
-      <c r="J93" t="s">
+      <c r="M93" t="s">
+        <v>27</v>
+      </c>
+      <c r="N93" t="s">
         <v>88</v>
       </c>
-      <c r="K93" t="s">
+      <c r="O93" t="s">
         <v>39</v>
       </c>
-      <c r="L93" t="s">
+      <c r="P93" t="s">
         <v>217</v>
       </c>
-      <c r="M93" t="s">
-        <v>31</v>
-      </c>
-      <c r="N93" t="s">
+      <c r="Q93" t="s">
+        <v>31</v>
+      </c>
+      <c r="R93" t="s">
         <v>90</v>
       </c>
-      <c r="O93" t="s">
+      <c r="S93" t="s">
         <v>79</v>
       </c>
-      <c r="P93" t="s">
+      <c r="T93" t="s">
         <v>34</v>
       </c>
-      <c r="Q93" t="s">
+      <c r="U93" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
-      <c r="A94">
+    <row r="94" spans="1:21">
+      <c r="A94" s="1">
+        <v>12700000000000</v>
+      </c>
+      <c r="B94" s="1">
+        <v>5.74E-2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>27</v>
+      </c>
+      <c r="E94">
         <v>78</v>
       </c>
-      <c r="B94" t="s">
+      <c r="F94" t="s">
         <v>215</v>
       </c>
-      <c r="C94">
+      <c r="G94">
         <v>-0.188</v>
       </c>
-      <c r="D94">
+      <c r="H94">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E94" t="s">
+      <c r="I94" t="s">
         <v>219</v>
       </c>
-      <c r="F94" s="1">
+      <c r="J94" s="1">
         <v>84400000000000</v>
       </c>
-      <c r="G94" s="1">
+      <c r="K94" s="1">
         <v>0.64900000000000002</v>
       </c>
-      <c r="H94" s="1">
+      <c r="L94" s="1">
         <v>4.4799999999999996E-3</v>
       </c>
-      <c r="I94" t="s">
-        <v>27</v>
-      </c>
-      <c r="J94" t="s">
+      <c r="M94" t="s">
+        <v>27</v>
+      </c>
+      <c r="N94" t="s">
         <v>81</v>
       </c>
-      <c r="K94" t="s">
+      <c r="O94" t="s">
         <v>82</v>
       </c>
-      <c r="L94" t="s">
+      <c r="P94" t="s">
         <v>220</v>
       </c>
-      <c r="M94" t="s">
-        <v>31</v>
-      </c>
-      <c r="N94" t="s">
+      <c r="Q94" t="s">
+        <v>31</v>
+      </c>
+      <c r="R94" t="s">
         <v>78</v>
       </c>
-      <c r="O94" t="s">
+      <c r="S94" t="s">
         <v>83</v>
       </c>
-      <c r="P94" t="s">
+      <c r="T94" t="s">
         <v>34</v>
       </c>
-      <c r="Q94" t="s">
+      <c r="U94" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
-      <c r="A95">
+    <row r="95" spans="1:21">
+      <c r="A95" s="1">
+        <v>12700000000000</v>
+      </c>
+      <c r="B95" s="1">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>27</v>
+      </c>
+      <c r="E95">
         <v>79</v>
       </c>
-      <c r="B95" t="s">
+      <c r="F95" t="s">
         <v>221</v>
       </c>
-      <c r="C95">
+      <c r="G95">
         <v>0.43</v>
       </c>
-      <c r="D95">
+      <c r="H95">
         <v>0.06</v>
       </c>
-      <c r="E95" t="s">
+      <c r="I95" t="s">
         <v>140</v>
       </c>
-      <c r="F95" s="1">
+      <c r="J95" s="1">
         <v>66700000000000</v>
       </c>
-      <c r="G95" s="1">
+      <c r="K95" s="1">
         <v>0.43</v>
       </c>
-      <c r="H95" s="1">
+      <c r="L95" s="1">
         <v>0.06</v>
       </c>
-      <c r="I95" t="s">
-        <v>27</v>
-      </c>
-      <c r="J95" t="s">
+      <c r="M95" t="s">
+        <v>27</v>
+      </c>
+      <c r="N95" t="s">
         <v>88</v>
       </c>
-      <c r="K95" t="s">
+      <c r="O95" t="s">
         <v>39</v>
       </c>
-      <c r="L95" t="s">
+      <c r="P95" t="s">
         <v>222</v>
       </c>
-      <c r="M95" t="s">
-        <v>31</v>
-      </c>
-      <c r="N95" t="s">
+      <c r="Q95" t="s">
+        <v>31</v>
+      </c>
+      <c r="R95" t="s">
         <v>90</v>
       </c>
-      <c r="O95" t="s">
+      <c r="S95" t="s">
         <v>79</v>
       </c>
-      <c r="P95" t="s">
+      <c r="T95" t="s">
         <v>34</v>
       </c>
-      <c r="Q95" t="s">
+      <c r="U95" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
-      <c r="A96">
+    <row r="96" spans="1:21">
+      <c r="A96" s="1">
+        <v>4200000000000</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="C96" t="s">
+        <v>27</v>
+      </c>
+      <c r="E96">
         <v>80</v>
       </c>
-      <c r="B96" t="s">
+      <c r="F96" t="s">
         <v>221</v>
       </c>
-      <c r="C96">
+      <c r="G96">
         <v>0.46</v>
       </c>
-      <c r="D96">
+      <c r="H96">
         <v>0.05</v>
       </c>
-      <c r="E96" t="s">
+      <c r="I96" t="s">
         <v>140</v>
       </c>
-      <c r="F96" s="1">
+      <c r="J96" s="1">
         <v>66700000000000</v>
       </c>
-      <c r="G96" s="1">
+      <c r="K96" s="1">
         <v>0.46</v>
       </c>
-      <c r="H96" s="1">
+      <c r="L96" s="1">
         <v>0.05</v>
       </c>
-      <c r="I96" t="s">
-        <v>27</v>
-      </c>
-      <c r="J96" t="s">
+      <c r="M96" t="s">
+        <v>27</v>
+      </c>
+      <c r="N96" t="s">
         <v>216</v>
       </c>
-      <c r="K96" t="s">
+      <c r="O96" t="s">
         <v>39</v>
       </c>
-      <c r="L96" t="s">
+      <c r="P96" t="s">
         <v>222</v>
       </c>
-      <c r="M96" t="s">
-        <v>31</v>
-      </c>
-      <c r="O96" t="s">
+      <c r="Q96" t="s">
+        <v>31</v>
+      </c>
+      <c r="S96" t="s">
         <v>83</v>
       </c>
-      <c r="P96" t="s">
+      <c r="T96" t="s">
         <v>218</v>
       </c>
-      <c r="Q96" t="s">
+      <c r="U96" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
-      <c r="A97">
+    <row r="97" spans="1:21">
+      <c r="A97" s="1">
+        <v>4200000000000</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="C97" t="s">
+        <v>27</v>
+      </c>
+      <c r="E97">
         <v>81</v>
       </c>
-      <c r="B97" t="s">
+      <c r="F97" t="s">
         <v>221</v>
       </c>
-      <c r="C97">
+      <c r="G97">
         <v>-0.39600000000000002</v>
       </c>
-      <c r="D97">
+      <c r="H97">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E97" t="s">
+      <c r="I97" t="s">
         <v>219</v>
       </c>
-      <c r="F97" s="1">
+      <c r="J97" s="1">
         <v>66700000000000</v>
       </c>
-      <c r="G97" s="1">
+      <c r="K97" s="1">
         <v>0.40200000000000002</v>
       </c>
-      <c r="H97" s="1">
+      <c r="L97" s="1">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="I97" t="s">
-        <v>27</v>
-      </c>
-      <c r="J97" t="s">
+      <c r="M97" t="s">
+        <v>27</v>
+      </c>
+      <c r="N97" t="s">
         <v>81</v>
       </c>
-      <c r="K97" t="s">
+      <c r="O97" t="s">
         <v>82</v>
       </c>
-      <c r="L97" t="s">
+      <c r="P97" t="s">
         <v>223</v>
       </c>
-      <c r="M97" t="s">
-        <v>31</v>
-      </c>
-      <c r="N97" t="s">
+      <c r="Q97" t="s">
+        <v>31</v>
+      </c>
+      <c r="R97" t="s">
         <v>78</v>
       </c>
-      <c r="O97" t="s">
+      <c r="S97" t="s">
         <v>83</v>
       </c>
-      <c r="P97" t="s">
+      <c r="T97" t="s">
         <v>34</v>
       </c>
-      <c r="Q97" t="s">
+      <c r="U97" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
-      <c r="A98">
+    <row r="98" spans="1:21">
+      <c r="A98" s="1">
+        <v>4200000000000</v>
+      </c>
+      <c r="B98" s="1">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="C98" t="s">
+        <v>27</v>
+      </c>
+      <c r="E98">
         <v>82</v>
       </c>
-      <c r="B98" t="s">
+      <c r="F98" t="s">
         <v>224</v>
       </c>
-      <c r="C98">
+      <c r="G98">
         <v>0.33</v>
       </c>
-      <c r="D98">
+      <c r="H98">
         <v>0.04</v>
       </c>
-      <c r="E98" t="s">
+      <c r="I98" t="s">
         <v>140</v>
       </c>
-      <c r="F98" s="1">
+      <c r="J98" s="1">
         <v>52300000000000</v>
       </c>
-      <c r="G98" s="1">
+      <c r="K98" s="1">
         <v>0.33</v>
       </c>
-      <c r="H98" s="1">
+      <c r="L98" s="1">
         <v>0.04</v>
       </c>
-      <c r="I98" t="s">
-        <v>27</v>
-      </c>
-      <c r="J98" t="s">
+      <c r="M98" t="s">
+        <v>27</v>
+      </c>
+      <c r="N98" t="s">
         <v>88</v>
       </c>
-      <c r="K98" t="s">
+      <c r="O98" t="s">
         <v>39</v>
       </c>
-      <c r="L98" t="s">
+      <c r="P98" t="s">
         <v>225</v>
       </c>
-      <c r="M98" t="s">
-        <v>31</v>
-      </c>
-      <c r="N98" t="s">
+      <c r="Q98" t="s">
+        <v>31</v>
+      </c>
+      <c r="R98" t="s">
         <v>90</v>
       </c>
-      <c r="O98" t="s">
+      <c r="S98" t="s">
         <v>79</v>
       </c>
-      <c r="P98" t="s">
+      <c r="T98" t="s">
         <v>34</v>
       </c>
-      <c r="Q98" t="s">
+      <c r="U98" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
-      <c r="A99">
+    <row r="99" spans="1:21">
+      <c r="A99" s="1">
+        <v>4200000000000</v>
+      </c>
+      <c r="B99" s="1">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="C99" t="s">
+        <v>27</v>
+      </c>
+      <c r="E99">
         <v>83</v>
       </c>
-      <c r="B99" t="s">
+      <c r="F99" t="s">
         <v>224</v>
       </c>
-      <c r="C99">
+      <c r="G99">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="D99">
+      <c r="H99">
         <v>2E-3</v>
       </c>
-      <c r="E99" t="s">
+      <c r="I99" t="s">
         <v>219</v>
       </c>
-      <c r="F99" s="1">
+      <c r="J99" s="1">
         <v>52300000000000</v>
       </c>
-      <c r="G99" s="1">
+      <c r="K99" s="1">
         <v>0.28199999999999997</v>
       </c>
-      <c r="H99" s="1">
+      <c r="L99" s="1">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="I99" t="s">
-        <v>27</v>
-      </c>
-      <c r="J99" t="s">
+      <c r="M99" t="s">
+        <v>27</v>
+      </c>
+      <c r="N99" t="s">
         <v>81</v>
       </c>
-      <c r="K99" t="s">
+      <c r="O99" t="s">
         <v>82</v>
       </c>
-      <c r="L99" t="s">
+      <c r="P99" t="s">
         <v>226</v>
       </c>
-      <c r="M99" t="s">
-        <v>31</v>
-      </c>
-      <c r="N99" t="s">
+      <c r="Q99" t="s">
+        <v>31</v>
+      </c>
+      <c r="R99" t="s">
         <v>78</v>
       </c>
-      <c r="O99" t="s">
+      <c r="S99" t="s">
         <v>83</v>
       </c>
-      <c r="P99" t="s">
+      <c r="T99" t="s">
         <v>34</v>
       </c>
-      <c r="Q99" t="s">
+      <c r="U99" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
-      <c r="A100">
+    <row r="100" spans="1:21">
+      <c r="A100" s="1">
+        <v>3000000000000</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="C100" t="s">
+        <v>27</v>
+      </c>
+      <c r="E100">
         <v>84</v>
       </c>
-      <c r="B100" t="s">
+      <c r="F100" t="s">
         <v>224</v>
       </c>
-      <c r="C100">
+      <c r="G100">
         <v>0.42</v>
       </c>
-      <c r="D100">
+      <c r="H100">
         <v>0.04</v>
       </c>
-      <c r="E100" t="s">
+      <c r="I100" t="s">
         <v>140</v>
       </c>
-      <c r="F100" s="1">
+      <c r="J100" s="1">
         <v>52300000000000</v>
       </c>
-      <c r="G100" s="1">
+      <c r="K100" s="1">
         <v>0.42</v>
       </c>
-      <c r="H100" s="1">
+      <c r="L100" s="1">
         <v>0.04</v>
       </c>
-      <c r="I100" t="s">
-        <v>27</v>
-      </c>
-      <c r="J100" t="s">
+      <c r="M100" t="s">
+        <v>27</v>
+      </c>
+      <c r="N100" t="s">
         <v>216</v>
       </c>
-      <c r="K100" t="s">
+      <c r="O100" t="s">
         <v>39</v>
       </c>
-      <c r="L100" t="s">
+      <c r="P100" t="s">
         <v>225</v>
       </c>
-      <c r="M100" t="s">
-        <v>31</v>
-      </c>
-      <c r="O100" t="s">
+      <c r="Q100" t="s">
+        <v>31</v>
+      </c>
+      <c r="S100" t="s">
         <v>83</v>
       </c>
-      <c r="P100" t="s">
+      <c r="T100" t="s">
         <v>218</v>
       </c>
-      <c r="Q100" t="s">
+      <c r="U100" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
-      <c r="A101">
+    <row r="101" spans="1:21">
+      <c r="A101" s="1">
+        <v>1920000000000</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="C101" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101">
         <v>85</v>
       </c>
-      <c r="B101" t="s">
+      <c r="F101" t="s">
         <v>227</v>
       </c>
-      <c r="C101">
+      <c r="G101">
         <v>43.6</v>
       </c>
-      <c r="D101">
+      <c r="H101">
         <v>0.2</v>
       </c>
-      <c r="E101" t="s">
+      <c r="I101" t="s">
         <v>87</v>
       </c>
-      <c r="F101" s="1">
+      <c r="J101" s="1">
         <v>51500000000000</v>
       </c>
-      <c r="G101" s="1">
+      <c r="K101" s="1">
         <v>4.36E-2</v>
       </c>
-      <c r="H101" s="1">
+      <c r="L101" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="I101" t="s">
-        <v>27</v>
-      </c>
-      <c r="J101" t="s">
+      <c r="M101" t="s">
+        <v>27</v>
+      </c>
+      <c r="N101" t="s">
         <v>228</v>
       </c>
-      <c r="K101" t="s">
+      <c r="O101" t="s">
         <v>39</v>
       </c>
-      <c r="L101" t="s">
+      <c r="P101" t="s">
         <v>229</v>
       </c>
-      <c r="M101" t="s">
-        <v>31</v>
-      </c>
-      <c r="O101" t="s">
+      <c r="Q101" t="s">
+        <v>31</v>
+      </c>
+      <c r="S101" t="s">
         <v>33</v>
       </c>
-      <c r="P101" t="s">
+      <c r="T101" t="s">
         <v>34</v>
       </c>
-      <c r="Q101" t="s">
+      <c r="U101" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
-      <c r="A102">
+    <row r="102" spans="1:21">
+      <c r="A102" s="1">
+        <v>1920000000000</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C102" t="s">
+        <v>27</v>
+      </c>
+      <c r="E102">
         <v>86</v>
       </c>
-      <c r="B102" t="s">
+      <c r="F102" t="s">
         <v>230</v>
       </c>
-      <c r="C102">
+      <c r="G102">
         <v>0.16</v>
       </c>
-      <c r="D102">
+      <c r="H102">
         <v>0.02</v>
       </c>
-      <c r="E102" t="s">
+      <c r="I102" t="s">
         <v>140</v>
       </c>
-      <c r="F102" s="1">
+      <c r="J102" s="1">
         <v>38100000000000</v>
       </c>
-      <c r="G102" s="1">
+      <c r="K102" s="1">
         <v>0.16</v>
       </c>
-      <c r="H102" s="1">
+      <c r="L102" s="1">
         <v>0.02</v>
       </c>
-      <c r="I102" t="s">
-        <v>27</v>
-      </c>
-      <c r="J102" t="s">
+      <c r="M102" t="s">
+        <v>27</v>
+      </c>
+      <c r="N102" t="s">
         <v>88</v>
       </c>
-      <c r="K102" t="s">
+      <c r="O102" t="s">
         <v>39</v>
       </c>
-      <c r="L102" t="s">
+      <c r="P102" t="s">
         <v>231</v>
       </c>
-      <c r="M102" t="s">
-        <v>31</v>
-      </c>
-      <c r="N102" t="s">
+      <c r="Q102" t="s">
+        <v>31</v>
+      </c>
+      <c r="R102" t="s">
         <v>90</v>
       </c>
-      <c r="O102" t="s">
+      <c r="S102" t="s">
         <v>79</v>
       </c>
-      <c r="P102" t="s">
+      <c r="T102" t="s">
         <v>34</v>
       </c>
-      <c r="Q102" t="s">
+      <c r="U102" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
-      <c r="A103">
+    <row r="103" spans="1:21">
+      <c r="A103" s="1">
+        <v>1400000000</v>
+      </c>
+      <c r="B103" s="1">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>27</v>
+      </c>
+      <c r="E103">
         <v>87</v>
       </c>
-      <c r="B103" t="s">
+      <c r="F103" t="s">
         <v>230</v>
       </c>
-      <c r="C103">
+      <c r="G103">
         <v>-0.78900000000000003</v>
       </c>
-      <c r="D103">
+      <c r="H103">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E103" t="s">
+      <c r="I103" t="s">
         <v>219</v>
       </c>
-      <c r="F103" s="1">
+      <c r="J103" s="1">
         <v>38100000000000</v>
       </c>
-      <c r="G103" s="1">
+      <c r="K103" s="1">
         <v>0.16300000000000001</v>
       </c>
-      <c r="H103" s="1">
+      <c r="L103" s="1">
         <v>1.5E-3</v>
       </c>
-      <c r="I103" t="s">
-        <v>27</v>
-      </c>
-      <c r="J103" t="s">
+      <c r="M103" t="s">
+        <v>27</v>
+      </c>
+      <c r="N103" t="s">
         <v>81</v>
       </c>
-      <c r="K103" t="s">
+      <c r="O103" t="s">
         <v>82</v>
       </c>
-      <c r="L103" t="s">
+      <c r="P103" t="s">
         <v>232</v>
       </c>
-      <c r="M103" t="s">
-        <v>31</v>
-      </c>
-      <c r="N103" t="s">
+      <c r="Q103" t="s">
+        <v>31</v>
+      </c>
+      <c r="R103" t="s">
         <v>78</v>
       </c>
-      <c r="O103" t="s">
+      <c r="S103" t="s">
         <v>83</v>
       </c>
-      <c r="P103" t="s">
+      <c r="T103" t="s">
         <v>34</v>
       </c>
-      <c r="Q103" t="s">
+      <c r="U103" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
-      <c r="A104">
+    <row r="104" spans="1:21">
+      <c r="A104" s="1">
+        <v>1400000000</v>
+      </c>
+      <c r="B104" s="1">
+        <v>4.3E-3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>27</v>
+      </c>
+      <c r="E104">
         <v>88</v>
       </c>
-      <c r="B104" t="s">
+      <c r="F104" t="s">
         <v>230</v>
       </c>
-      <c r="C104">
+      <c r="G104">
         <v>0.21</v>
       </c>
-      <c r="D104">
+      <c r="H104">
         <v>0.02</v>
       </c>
-      <c r="E104" t="s">
+      <c r="I104" t="s">
         <v>140</v>
       </c>
-      <c r="F104" s="1">
+      <c r="J104" s="1">
         <v>38100000000000</v>
       </c>
-      <c r="G104" s="1">
+      <c r="K104" s="1">
         <v>0.21</v>
       </c>
-      <c r="H104" s="1">
+      <c r="L104" s="1">
         <v>0.02</v>
       </c>
-      <c r="I104" t="s">
-        <v>27</v>
-      </c>
-      <c r="J104" t="s">
+      <c r="M104" t="s">
+        <v>27</v>
+      </c>
+      <c r="N104" t="s">
         <v>216</v>
       </c>
-      <c r="K104" t="s">
+      <c r="O104" t="s">
         <v>39</v>
       </c>
-      <c r="L104" t="s">
+      <c r="P104" t="s">
         <v>231</v>
       </c>
-      <c r="M104" t="s">
-        <v>31</v>
-      </c>
-      <c r="O104" t="s">
+      <c r="Q104" t="s">
+        <v>31</v>
+      </c>
+      <c r="S104" t="s">
         <v>83</v>
       </c>
-      <c r="P104" t="s">
+      <c r="T104" t="s">
         <v>218</v>
       </c>
-      <c r="Q104" t="s">
+      <c r="U104" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
-      <c r="A105">
+    <row r="105" spans="1:21">
+      <c r="E105">
         <v>89</v>
       </c>
-      <c r="B105" t="s">
+      <c r="F105" t="s">
         <v>233</v>
       </c>
-      <c r="C105">
+      <c r="G105">
         <v>24.3</v>
       </c>
-      <c r="D105">
+      <c r="H105">
         <v>0.2</v>
       </c>
-      <c r="E105" t="s">
+      <c r="I105" t="s">
         <v>87</v>
       </c>
-      <c r="F105" s="1">
+      <c r="J105" s="1">
         <v>36100000000000</v>
       </c>
-      <c r="G105" s="1">
+      <c r="K105" s="1">
         <v>2.4299999999999999E-2</v>
       </c>
-      <c r="H105" s="1">
+      <c r="L105" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="I105" t="s">
-        <v>27</v>
-      </c>
-      <c r="J105" t="s">
+      <c r="M105" t="s">
+        <v>27</v>
+      </c>
+      <c r="N105" t="s">
         <v>228</v>
       </c>
-      <c r="K105" t="s">
+      <c r="O105" t="s">
         <v>39</v>
       </c>
-      <c r="L105" t="s">
+      <c r="P105" t="s">
         <v>234</v>
       </c>
-      <c r="M105" t="s">
-        <v>31</v>
-      </c>
-      <c r="O105" t="s">
+      <c r="Q105" t="s">
+        <v>31</v>
+      </c>
+      <c r="S105" t="s">
         <v>33</v>
       </c>
-      <c r="P105" t="s">
+      <c r="T105" t="s">
         <v>34</v>
       </c>
-      <c r="Q105" t="s">
+      <c r="U105" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
-      <c r="A106">
+    <row r="106" spans="1:21">
+      <c r="E106">
         <v>90</v>
       </c>
-      <c r="B106" t="s">
+      <c r="F106" t="s">
         <v>235</v>
       </c>
-      <c r="C106">
+      <c r="G106">
         <v>27.1</v>
       </c>
-      <c r="D106">
+      <c r="H106">
         <v>0.1</v>
       </c>
-      <c r="E106" t="s">
+      <c r="I106" t="s">
         <v>87</v>
       </c>
-      <c r="F106" s="1">
+      <c r="J106" s="1">
         <v>30200000000000</v>
       </c>
-      <c r="G106" s="1">
+      <c r="K106" s="1">
         <v>2.7099999999999999E-2</v>
       </c>
-      <c r="H106" s="1">
+      <c r="L106" s="1">
         <v>1E-4</v>
       </c>
-      <c r="I106" t="s">
-        <v>27</v>
-      </c>
-      <c r="J106" t="s">
+      <c r="M106" t="s">
+        <v>27</v>
+      </c>
+      <c r="N106" t="s">
         <v>228</v>
       </c>
-      <c r="K106" t="s">
+      <c r="O106" t="s">
         <v>39</v>
       </c>
-      <c r="L106" t="s">
+      <c r="P106" t="s">
         <v>236</v>
       </c>
-      <c r="M106" t="s">
-        <v>31</v>
-      </c>
-      <c r="O106" t="s">
+      <c r="Q106" t="s">
+        <v>31</v>
+      </c>
+      <c r="S106" t="s">
         <v>33</v>
       </c>
-      <c r="P106" t="s">
+      <c r="T106" t="s">
         <v>34</v>
       </c>
-      <c r="Q106" t="s">
+      <c r="U106" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
-      <c r="A107">
+    <row r="107" spans="1:21">
+      <c r="E107">
         <v>91</v>
       </c>
-      <c r="B107" t="s">
+      <c r="F107" t="s">
         <v>237</v>
       </c>
-      <c r="C107">
+      <c r="G107">
         <v>0.1</v>
       </c>
-      <c r="D107">
+      <c r="H107">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="E107" t="s">
+      <c r="I107" t="s">
         <v>140</v>
       </c>
-      <c r="F107" s="1">
+      <c r="J107" s="1">
         <v>25000000000000</v>
       </c>
-      <c r="G107" s="1">
+      <c r="K107" s="1">
         <v>0.1</v>
       </c>
-      <c r="H107" s="1">
+      <c r="L107" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="I107" t="s">
-        <v>27</v>
-      </c>
-      <c r="J107" t="s">
+      <c r="M107" t="s">
+        <v>27</v>
+      </c>
+      <c r="N107" t="s">
         <v>238</v>
       </c>
-      <c r="K107" t="s">
+      <c r="O107" t="s">
         <v>239</v>
       </c>
-      <c r="L107" t="s">
+      <c r="P107" t="s">
         <v>240</v>
       </c>
-      <c r="M107" t="s">
-        <v>31</v>
-      </c>
-      <c r="N107" t="s">
+      <c r="Q107" t="s">
+        <v>31</v>
+      </c>
+      <c r="R107" t="s">
         <v>241</v>
       </c>
-      <c r="O107" t="s">
+      <c r="S107" t="s">
         <v>242</v>
       </c>
-      <c r="P107" t="s">
+      <c r="T107" t="s">
         <v>34</v>
       </c>
-      <c r="Q107" t="s">
+      <c r="U107" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
-      <c r="A108">
+    <row r="108" spans="1:21">
+      <c r="E108">
         <v>92</v>
       </c>
-      <c r="B108" t="s">
+      <c r="F108" t="s">
         <v>244</v>
       </c>
-      <c r="C108">
+      <c r="G108">
         <v>21</v>
       </c>
-      <c r="D108">
+      <c r="H108">
         <v>0.1</v>
       </c>
-      <c r="E108" t="s">
+      <c r="I108" t="s">
         <v>87</v>
       </c>
-      <c r="F108" s="1">
+      <c r="J108" s="1">
         <v>23100000000000</v>
       </c>
-      <c r="G108" s="1">
+      <c r="K108" s="1">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="H108" s="1">
+      <c r="L108" s="1">
         <v>1E-4</v>
       </c>
-      <c r="I108" t="s">
-        <v>27</v>
-      </c>
-      <c r="J108" t="s">
+      <c r="M108" t="s">
+        <v>27</v>
+      </c>
+      <c r="N108" t="s">
         <v>228</v>
       </c>
-      <c r="K108" t="s">
+      <c r="O108" t="s">
         <v>39</v>
       </c>
-      <c r="L108" t="s">
+      <c r="P108" t="s">
         <v>245</v>
       </c>
-      <c r="M108" t="s">
-        <v>31</v>
-      </c>
-      <c r="O108" t="s">
+      <c r="Q108" t="s">
+        <v>31</v>
+      </c>
+      <c r="S108" t="s">
         <v>33</v>
       </c>
-      <c r="P108" t="s">
+      <c r="T108" t="s">
         <v>34</v>
       </c>
-      <c r="Q108" t="s">
+      <c r="U108" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
-      <c r="A109">
+    <row r="109" spans="1:21">
+      <c r="E109">
         <v>93</v>
       </c>
-      <c r="B109" t="s">
+      <c r="F109" t="s">
         <v>246</v>
       </c>
-      <c r="C109">
+      <c r="G109">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="D109">
+      <c r="H109">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E109" t="s">
+      <c r="I109" t="s">
         <v>140</v>
       </c>
-      <c r="F109" s="1">
+      <c r="J109" s="1">
         <v>12700000000000</v>
       </c>
-      <c r="G109" s="1">
+      <c r="K109" s="1">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="H109" s="1">
+      <c r="L109" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I109" t="s">
-        <v>27</v>
-      </c>
-      <c r="J109" t="s">
+      <c r="M109" t="s">
+        <v>27</v>
+      </c>
+      <c r="N109" t="s">
         <v>216</v>
       </c>
-      <c r="K109" t="s">
+      <c r="O109" t="s">
         <v>39</v>
       </c>
-      <c r="L109" t="s">
+      <c r="P109" t="s">
         <v>247</v>
       </c>
-      <c r="M109" t="s">
-        <v>31</v>
-      </c>
-      <c r="O109" t="s">
+      <c r="Q109" t="s">
+        <v>31</v>
+      </c>
+      <c r="S109" t="s">
         <v>83</v>
       </c>
-      <c r="P109" t="s">
+      <c r="T109" t="s">
         <v>34</v>
       </c>
-      <c r="Q109" t="s">
+      <c r="U109" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
-      <c r="A110">
+    <row r="110" spans="1:21">
+      <c r="E110">
         <v>94</v>
       </c>
-      <c r="B110" t="s">
+      <c r="F110" t="s">
         <v>246</v>
       </c>
-      <c r="C110">
+      <c r="G110">
         <v>56.6</v>
       </c>
-      <c r="D110">
+      <c r="H110">
         <v>6.3</v>
       </c>
-      <c r="E110" t="s">
+      <c r="I110" t="s">
         <v>87</v>
       </c>
-      <c r="F110" s="1">
+      <c r="J110" s="1">
         <v>12700000000000</v>
       </c>
-      <c r="G110" s="1">
+      <c r="K110" s="1">
         <v>5.6599999999999998E-2</v>
       </c>
-      <c r="H110" s="1">
+      <c r="L110" s="1">
         <v>6.3E-3</v>
       </c>
-      <c r="I110" t="s">
-        <v>27</v>
-      </c>
-      <c r="J110" t="s">
+      <c r="M110" t="s">
+        <v>27</v>
+      </c>
+      <c r="N110" t="s">
         <v>248</v>
       </c>
-      <c r="K110" t="s">
+      <c r="O110" t="s">
         <v>82</v>
       </c>
-      <c r="L110" t="s">
+      <c r="P110" t="s">
         <v>247</v>
       </c>
-      <c r="M110" t="s">
-        <v>31</v>
-      </c>
-      <c r="O110" t="s">
+      <c r="Q110" t="s">
+        <v>31</v>
+      </c>
+      <c r="S110" t="s">
         <v>83</v>
       </c>
-      <c r="P110" t="s">
+      <c r="T110" t="s">
         <v>34</v>
       </c>
-      <c r="Q110" t="s">
+      <c r="U110" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
-      <c r="A111">
+    <row r="111" spans="1:21">
+      <c r="E111">
         <v>95</v>
       </c>
-      <c r="B111" t="s">
+      <c r="F111" t="s">
         <v>246</v>
       </c>
-      <c r="C111">
+      <c r="G111">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="D111">
+      <c r="H111">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E111" t="s">
+      <c r="I111" t="s">
         <v>140</v>
       </c>
-      <c r="F111" s="1">
+      <c r="J111" s="1">
         <v>12700000000000</v>
       </c>
-      <c r="G111" s="1">
+      <c r="K111" s="1">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="H111" s="1">
+      <c r="L111" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I111" t="s">
-        <v>27</v>
-      </c>
-      <c r="J111" t="s">
+      <c r="M111" t="s">
+        <v>27</v>
+      </c>
+      <c r="N111" t="s">
         <v>88</v>
       </c>
-      <c r="K111" t="s">
+      <c r="O111" t="s">
         <v>39</v>
       </c>
-      <c r="L111" t="s">
+      <c r="P111" t="s">
         <v>247</v>
       </c>
-      <c r="M111" t="s">
-        <v>31</v>
-      </c>
-      <c r="N111" t="s">
+      <c r="Q111" t="s">
+        <v>31</v>
+      </c>
+      <c r="R111" t="s">
         <v>90</v>
       </c>
-      <c r="O111" t="s">
+      <c r="S111" t="s">
         <v>79</v>
       </c>
-      <c r="P111" t="s">
+      <c r="T111" t="s">
         <v>34</v>
       </c>
-      <c r="Q111" t="s">
+      <c r="U111" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
-      <c r="A112">
+    <row r="112" spans="1:21">
+      <c r="E112">
         <v>96</v>
       </c>
-      <c r="B112" t="s">
+      <c r="F112" t="s">
         <v>246</v>
       </c>
-      <c r="C112">
+      <c r="G112">
         <v>-1.2410000000000001</v>
       </c>
-      <c r="D112">
+      <c r="H112">
         <v>1.4E-2</v>
       </c>
-      <c r="E112" t="s">
+      <c r="I112" t="s">
         <v>219</v>
       </c>
-      <c r="F112" s="1">
+      <c r="J112" s="1">
         <v>12700000000000</v>
       </c>
-      <c r="G112" s="1">
+      <c r="K112" s="1">
         <v>5.74E-2</v>
       </c>
-      <c r="H112" s="1">
+      <c r="L112" s="1">
         <v>1.8500000000000001E-3</v>
       </c>
-      <c r="I112" t="s">
-        <v>27</v>
-      </c>
-      <c r="J112" t="s">
+      <c r="M112" t="s">
+        <v>27</v>
+      </c>
+      <c r="N112" t="s">
         <v>81</v>
       </c>
-      <c r="K112" t="s">
+      <c r="O112" t="s">
         <v>82</v>
       </c>
-      <c r="L112" t="s">
+      <c r="P112" t="s">
         <v>250</v>
       </c>
-      <c r="M112" t="s">
-        <v>31</v>
-      </c>
-      <c r="N112" t="s">
+      <c r="Q112" t="s">
+        <v>31</v>
+      </c>
+      <c r="R112" t="s">
         <v>78</v>
       </c>
-      <c r="O112" t="s">
+      <c r="S112" t="s">
         <v>83</v>
       </c>
-      <c r="P112" t="s">
+      <c r="T112" t="s">
         <v>34</v>
       </c>
-      <c r="Q112" t="s">
+      <c r="U112" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
-      <c r="A113">
+    <row r="113" spans="5:21">
+      <c r="E113">
         <v>97</v>
       </c>
-      <c r="B113" t="s">
+      <c r="F113" t="s">
         <v>246</v>
       </c>
-      <c r="C113">
+      <c r="G113">
         <v>56.6</v>
       </c>
-      <c r="D113">
+      <c r="H113">
         <v>6.3</v>
       </c>
-      <c r="E113" t="s">
+      <c r="I113" t="s">
         <v>87</v>
       </c>
-      <c r="F113" s="1">
+      <c r="J113" s="1">
         <v>12700000000000</v>
       </c>
-      <c r="G113" s="1">
+      <c r="K113" s="1">
         <v>5.6599999999999998E-2</v>
       </c>
-      <c r="H113" s="1">
+      <c r="L113" s="1">
         <v>6.3E-3</v>
       </c>
-      <c r="I113" t="s">
-        <v>27</v>
-      </c>
-      <c r="J113" t="s">
+      <c r="M113" t="s">
+        <v>27</v>
+      </c>
+      <c r="N113" t="s">
         <v>251</v>
       </c>
-      <c r="K113" t="s">
+      <c r="O113" t="s">
         <v>39</v>
       </c>
-      <c r="L113" t="s">
+      <c r="P113" t="s">
         <v>250</v>
       </c>
-      <c r="M113" t="s">
-        <v>31</v>
-      </c>
-      <c r="O113" t="s">
+      <c r="Q113" t="s">
+        <v>31</v>
+      </c>
+      <c r="S113" t="s">
         <v>83</v>
       </c>
-      <c r="P113" t="s">
+      <c r="T113" t="s">
         <v>34</v>
       </c>
-      <c r="Q113" t="s">
+      <c r="U113" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
-      <c r="A114">
+    <row r="114" spans="5:21">
+      <c r="E114">
         <v>98</v>
       </c>
-      <c r="B114" t="s">
+      <c r="F114" t="s">
         <v>252</v>
       </c>
-      <c r="D114" t="s">
+      <c r="H114" t="s">
         <v>253</v>
       </c>
-      <c r="E114" t="s">
+      <c r="I114" t="s">
         <v>140</v>
       </c>
-      <c r="F114" s="1">
+      <c r="J114" s="1">
         <v>12000000000000</v>
       </c>
-      <c r="H114" s="1">
+      <c r="L114" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I114" t="s">
-        <v>27</v>
-      </c>
-      <c r="J114" t="s">
+      <c r="M114" t="s">
+        <v>27</v>
+      </c>
+      <c r="N114" t="s">
         <v>238</v>
       </c>
-      <c r="K114" t="s">
+      <c r="O114" t="s">
         <v>239</v>
       </c>
-      <c r="L114" t="s">
+      <c r="P114" t="s">
         <v>254</v>
       </c>
-      <c r="M114" t="s">
-        <v>31</v>
-      </c>
-      <c r="N114" t="s">
+      <c r="Q114" t="s">
+        <v>31</v>
+      </c>
+      <c r="R114" t="s">
         <v>241</v>
       </c>
-      <c r="O114" t="s">
+      <c r="S114" t="s">
         <v>242</v>
       </c>
-      <c r="P114" t="s">
+      <c r="T114" t="s">
         <v>34</v>
       </c>
-      <c r="Q114" t="s">
+      <c r="U114" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
-      <c r="A115">
+    <row r="115" spans="5:21">
+      <c r="E115">
         <v>99</v>
       </c>
-      <c r="B115" t="s">
+      <c r="F115" t="s">
         <v>255</v>
       </c>
-      <c r="D115" t="s">
+      <c r="H115" t="s">
         <v>256</v>
       </c>
-      <c r="E115" t="s">
+      <c r="I115" t="s">
         <v>140</v>
       </c>
-      <c r="F115" s="1">
+      <c r="J115" s="1">
         <v>5000000000000</v>
       </c>
-      <c r="H115" s="1">
+      <c r="L115" s="1">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="I115" t="s">
-        <v>27</v>
-      </c>
-      <c r="J115" t="s">
+      <c r="M115" t="s">
+        <v>27</v>
+      </c>
+      <c r="N115" t="s">
         <v>238</v>
       </c>
-      <c r="K115" t="s">
+      <c r="O115" t="s">
         <v>239</v>
       </c>
-      <c r="L115" t="s">
+      <c r="P115" t="s">
         <v>257</v>
       </c>
-      <c r="M115" t="s">
-        <v>31</v>
-      </c>
-      <c r="N115" t="s">
+      <c r="Q115" t="s">
+        <v>31</v>
+      </c>
+      <c r="R115" t="s">
         <v>241</v>
       </c>
-      <c r="O115" t="s">
+      <c r="S115" t="s">
         <v>242</v>
       </c>
-      <c r="P115" t="s">
+      <c r="T115" t="s">
         <v>34</v>
       </c>
-      <c r="Q115" t="s">
+      <c r="U115" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
-      <c r="A116">
+    <row r="116" spans="5:21">
+      <c r="E116">
         <v>100</v>
       </c>
-      <c r="B116" t="s">
+      <c r="F116" t="s">
         <v>258</v>
       </c>
-      <c r="C116">
+      <c r="G116">
         <v>0.15</v>
       </c>
-      <c r="D116">
+      <c r="H116">
         <v>0.09</v>
       </c>
-      <c r="E116" t="s">
+      <c r="I116" t="s">
         <v>140</v>
       </c>
-      <c r="F116" s="1">
+      <c r="J116" s="1">
         <v>4200000000000</v>
       </c>
-      <c r="G116" s="1">
+      <c r="K116" s="1">
         <v>0.15</v>
       </c>
-      <c r="H116" s="1">
+      <c r="L116" s="1">
         <v>0.09</v>
       </c>
-      <c r="I116" t="s">
-        <v>27</v>
-      </c>
-      <c r="J116" t="s">
+      <c r="M116" t="s">
+        <v>27</v>
+      </c>
+      <c r="N116" t="s">
         <v>216</v>
       </c>
-      <c r="K116" t="s">
+      <c r="O116" t="s">
         <v>39</v>
       </c>
-      <c r="L116" t="s">
+      <c r="P116" t="s">
         <v>259</v>
       </c>
-      <c r="M116" t="s">
-        <v>31</v>
-      </c>
-      <c r="O116" t="s">
+      <c r="Q116" t="s">
+        <v>31</v>
+      </c>
+      <c r="S116" t="s">
         <v>83</v>
       </c>
-      <c r="P116" t="s">
+      <c r="T116" t="s">
         <v>34</v>
       </c>
-      <c r="Q116" t="s">
+      <c r="U116" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
-      <c r="A117">
+    <row r="117" spans="5:21">
+      <c r="E117">
         <v>101</v>
       </c>
-      <c r="B117" t="s">
+      <c r="F117" t="s">
         <v>258</v>
       </c>
-      <c r="C117">
+      <c r="G117">
         <v>0.17</v>
       </c>
-      <c r="D117">
+      <c r="H117">
         <v>0.12</v>
       </c>
-      <c r="E117" t="s">
+      <c r="I117" t="s">
         <v>140</v>
       </c>
-      <c r="F117" s="1">
+      <c r="J117" s="1">
         <v>4200000000000</v>
       </c>
-      <c r="G117" s="1">
+      <c r="K117" s="1">
         <v>0.17</v>
       </c>
-      <c r="H117" s="1">
+      <c r="L117" s="1">
         <v>0.12</v>
       </c>
-      <c r="I117" t="s">
-        <v>27</v>
-      </c>
-      <c r="J117" t="s">
+      <c r="M117" t="s">
+        <v>27</v>
+      </c>
+      <c r="N117" t="s">
         <v>88</v>
       </c>
-      <c r="K117" t="s">
+      <c r="O117" t="s">
         <v>39</v>
       </c>
-      <c r="L117" t="s">
+      <c r="P117" t="s">
         <v>259</v>
       </c>
-      <c r="M117" t="s">
-        <v>31</v>
-      </c>
-      <c r="N117" t="s">
+      <c r="Q117" t="s">
+        <v>31</v>
+      </c>
+      <c r="R117" t="s">
         <v>90</v>
       </c>
-      <c r="O117" t="s">
+      <c r="S117" t="s">
         <v>79</v>
       </c>
-      <c r="P117" t="s">
+      <c r="T117" t="s">
         <v>260</v>
       </c>
-      <c r="Q117" t="s">
+      <c r="U117" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
-      <c r="A118">
+    <row r="118" spans="5:21">
+      <c r="E118">
         <v>102</v>
       </c>
-      <c r="B118" t="s">
+      <c r="F118" t="s">
         <v>258</v>
       </c>
-      <c r="C118">
+      <c r="G118">
         <v>32.6</v>
       </c>
-      <c r="D118">
+      <c r="H118">
         <v>6.3</v>
       </c>
-      <c r="E118" t="s">
+      <c r="I118" t="s">
         <v>87</v>
       </c>
-      <c r="F118" s="1">
+      <c r="J118" s="1">
         <v>4200000000000</v>
       </c>
-      <c r="G118" s="1">
+      <c r="K118" s="1">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="H118" s="1">
+      <c r="L118" s="1">
         <v>6.3E-3</v>
       </c>
-      <c r="I118" t="s">
-        <v>27</v>
-      </c>
-      <c r="J118" t="s">
+      <c r="M118" t="s">
+        <v>27</v>
+      </c>
+      <c r="N118" t="s">
         <v>248</v>
       </c>
-      <c r="K118" t="s">
+      <c r="O118" t="s">
         <v>82</v>
       </c>
-      <c r="L118" t="s">
+      <c r="P118" t="s">
         <v>259</v>
       </c>
-      <c r="M118" t="s">
-        <v>31</v>
-      </c>
-      <c r="O118" t="s">
+      <c r="Q118" t="s">
+        <v>31</v>
+      </c>
+      <c r="S118" t="s">
         <v>83</v>
       </c>
-      <c r="P118" t="s">
+      <c r="T118" t="s">
         <v>34</v>
       </c>
-      <c r="Q118" t="s">
+      <c r="U118" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
-      <c r="A119">
+    <row r="119" spans="5:21">
+      <c r="E119">
         <v>103</v>
       </c>
-      <c r="B119" t="s">
+      <c r="F119" t="s">
         <v>258</v>
       </c>
-      <c r="C119">
+      <c r="G119">
         <v>32.6</v>
       </c>
-      <c r="D119">
+      <c r="H119">
         <v>6.3</v>
       </c>
-      <c r="E119" t="s">
+      <c r="I119" t="s">
         <v>87</v>
       </c>
-      <c r="F119" s="1">
+      <c r="J119" s="1">
         <v>4200000000000</v>
       </c>
-      <c r="G119" s="1">
+      <c r="K119" s="1">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="H119" s="1">
+      <c r="L119" s="1">
         <v>6.3E-3</v>
       </c>
-      <c r="I119" t="s">
-        <v>27</v>
-      </c>
-      <c r="J119" t="s">
+      <c r="M119" t="s">
+        <v>27</v>
+      </c>
+      <c r="N119" t="s">
         <v>251</v>
       </c>
-      <c r="K119" t="s">
+      <c r="O119" t="s">
         <v>39</v>
       </c>
-      <c r="L119" t="s">
+      <c r="P119" t="s">
         <v>261</v>
       </c>
-      <c r="M119" t="s">
-        <v>31</v>
-      </c>
-      <c r="O119" t="s">
+      <c r="Q119" t="s">
+        <v>31</v>
+      </c>
+      <c r="S119" t="s">
         <v>83</v>
       </c>
-      <c r="P119" t="s">
+      <c r="T119" t="s">
         <v>34</v>
       </c>
-      <c r="Q119" t="s">
+      <c r="U119" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
-      <c r="A120">
+    <row r="120" spans="5:21">
+      <c r="E120">
         <v>104</v>
       </c>
-      <c r="B120" t="s">
+      <c r="F120" t="s">
         <v>262</v>
       </c>
-      <c r="C120">
+      <c r="G120">
         <v>0.27</v>
       </c>
-      <c r="D120">
+      <c r="H120">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="E120" t="s">
+      <c r="I120" t="s">
         <v>140</v>
       </c>
-      <c r="F120" s="1">
+      <c r="J120" s="1">
         <v>3000000000000</v>
       </c>
-      <c r="G120" s="1">
+      <c r="K120" s="1">
         <v>0.27</v>
       </c>
-      <c r="H120" s="1">
+      <c r="L120" s="1">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="I120" t="s">
-        <v>27</v>
-      </c>
-      <c r="J120" t="s">
+      <c r="M120" t="s">
+        <v>27</v>
+      </c>
+      <c r="N120" t="s">
         <v>238</v>
       </c>
-      <c r="K120" t="s">
+      <c r="O120" t="s">
         <v>239</v>
       </c>
-      <c r="L120" t="s">
+      <c r="P120" t="s">
         <v>263</v>
       </c>
-      <c r="M120" t="s">
-        <v>31</v>
-      </c>
-      <c r="N120" t="s">
+      <c r="Q120" t="s">
+        <v>31</v>
+      </c>
+      <c r="R120" t="s">
         <v>241</v>
       </c>
-      <c r="O120" t="s">
+      <c r="S120" t="s">
         <v>242</v>
       </c>
-      <c r="P120" t="s">
+      <c r="T120" t="s">
         <v>34</v>
       </c>
-      <c r="Q120" t="s">
+      <c r="U120" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
-      <c r="A121">
+    <row r="121" spans="5:21">
+      <c r="E121">
         <v>105</v>
       </c>
-      <c r="B121" t="s">
+      <c r="F121" t="s">
         <v>264</v>
       </c>
-      <c r="D121" t="s">
+      <c r="H121" t="s">
         <v>265</v>
       </c>
-      <c r="E121" t="s">
+      <c r="I121" t="s">
         <v>87</v>
       </c>
-      <c r="F121" s="1">
+      <c r="J121" s="1">
         <v>1920000000000</v>
       </c>
-      <c r="H121" s="1">
+      <c r="L121" s="1">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="I121" t="s">
-        <v>27</v>
-      </c>
-      <c r="J121" t="s">
+      <c r="M121" t="s">
+        <v>27</v>
+      </c>
+      <c r="N121" t="s">
         <v>251</v>
       </c>
-      <c r="K121" t="s">
+      <c r="O121" t="s">
         <v>29</v>
       </c>
-      <c r="L121" t="s">
+      <c r="P121" t="s">
         <v>266</v>
       </c>
-      <c r="M121" t="s">
-        <v>31</v>
-      </c>
-      <c r="O121" t="s">
+      <c r="Q121" t="s">
+        <v>31</v>
+      </c>
+      <c r="S121" t="s">
         <v>83</v>
       </c>
-      <c r="P121" t="s">
+      <c r="T121" t="s">
         <v>34</v>
       </c>
-      <c r="Q121" t="s">
+      <c r="U121" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
-      <c r="A122">
+    <row r="122" spans="5:21">
+      <c r="E122">
         <v>106</v>
       </c>
-      <c r="B122" t="s">
+      <c r="F122" t="s">
         <v>264</v>
       </c>
-      <c r="C122">
+      <c r="G122">
         <v>0.31</v>
       </c>
-      <c r="D122">
+      <c r="H122">
         <v>0.18</v>
       </c>
-      <c r="E122" t="s">
+      <c r="I122" t="s">
         <v>140</v>
       </c>
-      <c r="F122" s="1">
+      <c r="J122" s="1">
         <v>1920000000000</v>
       </c>
-      <c r="G122" s="1">
+      <c r="K122" s="1">
         <v>0.31</v>
       </c>
-      <c r="H122" s="1">
+      <c r="L122" s="1">
         <v>0.18</v>
       </c>
-      <c r="I122" t="s">
-        <v>27</v>
-      </c>
-      <c r="J122" t="s">
+      <c r="M122" t="s">
+        <v>27</v>
+      </c>
+      <c r="N122" t="s">
         <v>216</v>
       </c>
-      <c r="K122" t="s">
+      <c r="O122" t="s">
         <v>39</v>
       </c>
-      <c r="L122" t="s">
+      <c r="P122" t="s">
         <v>267</v>
       </c>
-      <c r="M122" t="s">
-        <v>31</v>
-      </c>
-      <c r="O122" t="s">
+      <c r="Q122" t="s">
+        <v>31</v>
+      </c>
+      <c r="S122" t="s">
         <v>83</v>
       </c>
-      <c r="P122" t="s">
+      <c r="T122" t="s">
         <v>34</v>
       </c>
-      <c r="Q122" t="s">
+      <c r="U122" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
-      <c r="A123">
+    <row r="123" spans="5:21">
+      <c r="E123">
         <v>107</v>
       </c>
-      <c r="B123" t="s">
+      <c r="F123" t="s">
         <v>264</v>
       </c>
-      <c r="D123" t="s">
+      <c r="H123" t="s">
         <v>265</v>
       </c>
-      <c r="E123" t="s">
+      <c r="I123" t="s">
         <v>87</v>
       </c>
-      <c r="F123" s="1">
+      <c r="J123" s="1">
         <v>1920000000000</v>
       </c>
-      <c r="H123" s="1">
+      <c r="L123" s="1">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="I123" t="s">
-        <v>27</v>
-      </c>
-      <c r="J123" t="s">
+      <c r="M123" t="s">
+        <v>27</v>
+      </c>
+      <c r="N123" t="s">
         <v>248</v>
       </c>
-      <c r="K123" t="s">
+      <c r="O123" t="s">
         <v>29</v>
       </c>
-      <c r="L123" t="s">
+      <c r="P123" t="s">
         <v>267</v>
       </c>
-      <c r="M123" t="s">
-        <v>31</v>
-      </c>
-      <c r="O123" t="s">
+      <c r="Q123" t="s">
+        <v>31</v>
+      </c>
+      <c r="S123" t="s">
         <v>83</v>
       </c>
-      <c r="P123" t="s">
+      <c r="T123" t="s">
         <v>34</v>
       </c>
-      <c r="Q123" t="s">
+      <c r="U123" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
-      <c r="A124">
+    <row r="124" spans="5:21">
+      <c r="E124">
         <v>108</v>
       </c>
-      <c r="B124" t="s">
+      <c r="F124" t="s">
         <v>264</v>
       </c>
-      <c r="C124">
+      <c r="G124">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D124">
+      <c r="H124">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E124" t="s">
+      <c r="I124" t="s">
         <v>140</v>
       </c>
-      <c r="F124" s="1">
+      <c r="J124" s="1">
         <v>1920000000000</v>
       </c>
-      <c r="G124" s="1">
+      <c r="K124" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H124" s="1">
+      <c r="L124" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I124" t="s">
-        <v>27</v>
-      </c>
-      <c r="J124" t="s">
+      <c r="M124" t="s">
+        <v>27</v>
+      </c>
+      <c r="N124" t="s">
         <v>88</v>
       </c>
-      <c r="K124" t="s">
+      <c r="O124" t="s">
         <v>39</v>
       </c>
-      <c r="L124" t="s">
+      <c r="P124" t="s">
         <v>267</v>
       </c>
-      <c r="M124" t="s">
-        <v>31</v>
-      </c>
-      <c r="N124" t="s">
+      <c r="Q124" t="s">
+        <v>31</v>
+      </c>
+      <c r="R124" t="s">
         <v>90</v>
       </c>
-      <c r="O124" t="s">
+      <c r="S124" t="s">
         <v>79</v>
       </c>
-      <c r="P124" t="s">
+      <c r="T124" t="s">
         <v>260</v>
       </c>
-      <c r="Q124" t="s">
+      <c r="U124" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
-      <c r="A125">
+    <row r="125" spans="5:21">
+      <c r="E125">
         <v>109</v>
       </c>
-      <c r="B125" t="s">
+      <c r="F125" t="s">
         <v>268</v>
       </c>
-      <c r="D125" t="s">
+      <c r="H125" t="s">
         <v>269</v>
       </c>
-      <c r="E125" t="s">
+      <c r="I125" t="s">
         <v>87</v>
       </c>
-      <c r="F125" s="1">
+      <c r="J125" s="1">
         <v>5000000000</v>
       </c>
-      <c r="H125" s="1">
+      <c r="L125" s="1">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="I125" t="s">
-        <v>27</v>
-      </c>
-      <c r="J125" t="s">
+      <c r="M125" t="s">
+        <v>27</v>
+      </c>
+      <c r="N125" t="s">
         <v>270</v>
       </c>
-      <c r="K125" t="s">
+      <c r="O125" t="s">
         <v>29</v>
       </c>
-      <c r="L125" t="s">
+      <c r="P125" t="s">
         <v>271</v>
       </c>
-      <c r="M125" t="s">
-        <v>31</v>
-      </c>
-      <c r="N125" t="s">
+      <c r="Q125" t="s">
+        <v>31</v>
+      </c>
+      <c r="R125" t="s">
         <v>272</v>
       </c>
-      <c r="O125" t="s">
+      <c r="S125" t="s">
         <v>273</v>
       </c>
-      <c r="P125" t="s">
+      <c r="T125" t="s">
         <v>274</v>
       </c>
-      <c r="Q125" t="s">
+      <c r="U125" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="126" spans="1:17">
-      <c r="A126">
+    <row r="126" spans="5:21">
+      <c r="E126">
         <v>110</v>
       </c>
-      <c r="B126" t="s">
+      <c r="F126" t="s">
         <v>275</v>
       </c>
-      <c r="C126">
+      <c r="G126">
         <v>3.9</v>
       </c>
-      <c r="D126">
+      <c r="H126">
         <v>0.6</v>
       </c>
-      <c r="E126" t="s">
+      <c r="I126" t="s">
         <v>87</v>
       </c>
-      <c r="F126" s="1">
+      <c r="J126" s="1">
         <v>1400000000</v>
       </c>
-      <c r="G126" s="1">
+      <c r="K126" s="1">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="H126" s="1">
+      <c r="L126" s="1">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="I126" t="s">
-        <v>27</v>
-      </c>
-      <c r="J126" t="s">
+      <c r="M126" t="s">
+        <v>27</v>
+      </c>
+      <c r="N126" t="s">
         <v>276</v>
       </c>
-      <c r="K126" t="s">
+      <c r="O126" t="s">
         <v>39</v>
       </c>
-      <c r="L126" t="s">
+      <c r="P126" t="s">
         <v>277</v>
       </c>
-      <c r="M126" t="s">
-        <v>31</v>
-      </c>
-      <c r="N126" t="s">
+      <c r="Q126" t="s">
+        <v>31</v>
+      </c>
+      <c r="R126" t="s">
         <v>278</v>
       </c>
-      <c r="O126" t="s">
+      <c r="S126" t="s">
         <v>33</v>
       </c>
-      <c r="P126" t="s">
+      <c r="T126" t="s">
         <v>34</v>
       </c>
-      <c r="Q126" t="s">
+      <c r="U126" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="127" spans="1:17">
-      <c r="A127">
+    <row r="127" spans="5:21">
+      <c r="E127">
         <v>111</v>
       </c>
-      <c r="B127" t="s">
+      <c r="F127" t="s">
         <v>279</v>
       </c>
-      <c r="C127">
+      <c r="G127">
         <v>4.3</v>
       </c>
-      <c r="D127">
+      <c r="H127">
         <v>0.6</v>
       </c>
-      <c r="E127" t="s">
+      <c r="I127" t="s">
         <v>87</v>
       </c>
-      <c r="F127" s="1">
+      <c r="J127" s="1">
         <v>1400000000</v>
       </c>
-      <c r="G127" s="1">
+      <c r="K127" s="1">
         <v>4.3E-3</v>
       </c>
-      <c r="H127" s="1">
+      <c r="L127" s="1">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="I127" t="s">
-        <v>27</v>
-      </c>
-      <c r="J127" t="s">
+      <c r="M127" t="s">
+        <v>27</v>
+      </c>
+      <c r="N127" t="s">
         <v>280</v>
       </c>
-      <c r="K127" t="s">
+      <c r="O127" t="s">
         <v>39</v>
       </c>
-      <c r="L127" t="s">
+      <c r="P127" t="s">
         <v>281</v>
       </c>
-      <c r="M127" t="s">
-        <v>31</v>
-      </c>
-      <c r="N127" t="s">
+      <c r="Q127" t="s">
+        <v>31</v>
+      </c>
+      <c r="R127" t="s">
         <v>282</v>
       </c>
-      <c r="O127" t="s">
+      <c r="S127" t="s">
         <v>33</v>
       </c>
-      <c r="P127" t="s">
+      <c r="T127" t="s">
         <v>34</v>
       </c>
-      <c r="Q127" t="s">
+      <c r="U127" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q3" r:id="rId1"/>
+    <hyperlink ref="U3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
